--- a/20220927_BeltWalkingACSMabstract.xlsx
+++ b/20220927_BeltWalkingACSMabstract.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Meg/Documents/belt study/Belt Study 1.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joelmartin/belt_study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E215ECA3-3262-6C43-877F-B537592DEF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC18A5BE-19F2-9D45-B607-AF55CCE454D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="5480" windowWidth="26740" windowHeight="16940" xr2:uid="{1A9CBB5D-DE96-6540-A1F2-1DB080C2C118}"/>
+    <workbookView xWindow="-26760" yWindow="-920" windowWidth="25600" windowHeight="13900" activeTab="3" xr2:uid="{1A9CBB5D-DE96-6540-A1F2-1DB080C2C118}"/>
   </bookViews>
   <sheets>
-    <sheet name="Winsorized Values" sheetId="2" r:id="rId1"/>
+    <sheet name="Winsorized Values 2SD_norm" sheetId="2" r:id="rId1"/>
+    <sheet name="Winsorized 2SD" sheetId="6" r:id="rId2"/>
+    <sheet name="Raw Data" sheetId="4" r:id="rId3"/>
+    <sheet name="Winsorized 3SD" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -23,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>Subject</t>
   </si>
@@ -66,12 +67,39 @@
   <si>
     <t>RMF</t>
   </si>
+  <si>
+    <t>L_VL_diff</t>
+  </si>
+  <si>
+    <t>R_VL_diff</t>
+  </si>
+  <si>
+    <t>L_BF_diff</t>
+  </si>
+  <si>
+    <t>R_BF_diff</t>
+  </si>
+  <si>
+    <t>L_Abd_diff</t>
+  </si>
+  <si>
+    <t>R_Abd_diff</t>
+  </si>
+  <si>
+    <t>L_MF_diff</t>
+  </si>
+  <si>
+    <t>R_MF_diff</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -94,6 +122,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -115,11 +162,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51572F38-81E0-2A4A-9EEB-3C25665AC6F7}">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2781,4 +2839,8812 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC4588E-6304-1742-B9C9-DDC5A14BA7D3}">
+  <dimension ref="A1:J74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>4.3100000000000002E-6</v>
+      </c>
+      <c r="D2" s="6">
+        <v>5.6500000000000001E-6</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1.0210000000000001E-5</v>
+      </c>
+      <c r="F2" s="6">
+        <v>2.0270000000000001E-5</v>
+      </c>
+      <c r="G2" s="6">
+        <v>2.4499999999999998E-6</v>
+      </c>
+      <c r="H2" s="6">
+        <v>2.4899999999999999E-6</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1.03E-5</v>
+      </c>
+      <c r="J2" s="6">
+        <v>6.4099999999999996E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>5.2599999999999996E-6</v>
+      </c>
+      <c r="D3" s="6">
+        <v>7.4200000000000001E-6</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1.06E-5</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2.4049999999999998E-5</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1.7799999999999999E-6</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1.6899999999999999E-6</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1.2629999999999999E-5</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1.3334139999999999E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6">
+        <v>4.95E-6</v>
+      </c>
+      <c r="D4" s="6">
+        <v>7.0199999999999997E-6</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1.136E-5</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2.5089999999999999E-5</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1.46E-6</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1.55E-6</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1.024E-5</v>
+      </c>
+      <c r="J4" s="6">
+        <v>7.7800000000000001E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4.6500000000000004E-6</v>
+      </c>
+      <c r="D5" s="6">
+        <v>5.4600000000000002E-6</v>
+      </c>
+      <c r="E5" s="6">
+        <v>8.1499999999999999E-6</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2.7330000000000001E-5</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1.95E-6</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1.68E-6</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1.173E-5</v>
+      </c>
+      <c r="J5" s="6">
+        <v>8.4300000000000006E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>4.3800000000000004E-6</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5.7400000000000001E-6</v>
+      </c>
+      <c r="E6" s="6">
+        <v>8.8899999999999996E-6</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2.694E-5</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1.8700000000000001E-6</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1.2119999999999999E-5</v>
+      </c>
+      <c r="J6" s="6">
+        <v>7.61E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6">
+        <v>5.5500000000000002E-6</v>
+      </c>
+      <c r="D7" s="6">
+        <v>6.1999999999999999E-6</v>
+      </c>
+      <c r="E7" s="6">
+        <v>9.6099999999999995E-6</v>
+      </c>
+      <c r="F7" s="6">
+        <v>3.1930000000000001E-5</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2.1100000000000001E-6</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2.0099999999999998E-6</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1.5318599999999999E-5</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1.17E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>6.4999999999999996E-6</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2.5299999999999999E-6</v>
+      </c>
+      <c r="E8" s="6">
+        <v>9.0299999999999999E-6</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1.364E-5</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2.03E-6</v>
+      </c>
+      <c r="H8" s="6">
+        <v>2.8628200000000001E-6</v>
+      </c>
+      <c r="I8" s="6">
+        <v>4.3100000000000002E-6</v>
+      </c>
+      <c r="J8" s="6">
+        <v>3.7100000000000001E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6">
+        <v>3.7799999999999998E-6</v>
+      </c>
+      <c r="D9" s="6">
+        <v>3.6899999999999998E-6</v>
+      </c>
+      <c r="E9" s="6">
+        <v>6.6699999999999997E-6</v>
+      </c>
+      <c r="F9" s="6">
+        <v>8.3599999999999996E-6</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1.7799999999999999E-6</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2.2800000000000002E-6</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1.5318599999999999E-5</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1.3334139999999999E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7">
+        <v>4</v>
+      </c>
+      <c r="C10" s="6">
+        <v>7.4771139999999999E-6</v>
+      </c>
+      <c r="D10" s="6">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="E10" s="6">
+        <v>9.5599999999999999E-6</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1.3869999999999999E-5</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1.4699999999999999E-6</v>
+      </c>
+      <c r="H10" s="6">
+        <v>2.17E-6</v>
+      </c>
+      <c r="I10" s="6">
+        <v>7.1899999999999998E-6</v>
+      </c>
+      <c r="J10" s="6">
+        <v>4.5499999999999996E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6">
+        <v>4.7500000000000003E-6</v>
+      </c>
+      <c r="D11" s="6">
+        <v>4.3599999999999998E-6</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1.101E-5</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1.308E-5</v>
+      </c>
+      <c r="G11" s="6">
+        <v>2.5000000000000002E-6</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1.33E-6</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1.5318599999999999E-5</v>
+      </c>
+      <c r="J11" s="6">
+        <v>5.9200000000000001E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6">
+        <v>5.3900000000000001E-6</v>
+      </c>
+      <c r="D12" s="6">
+        <v>4.6700000000000002E-6</v>
+      </c>
+      <c r="E12" s="6">
+        <v>9.6199999999999994E-6</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1.0869999999999999E-5</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1.9599999999999999E-6</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1.35E-6</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1.0530000000000001E-5</v>
+      </c>
+      <c r="J12" s="6">
+        <v>6.0599999999999996E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6">
+        <v>6.2299999999999996E-6</v>
+      </c>
+      <c r="D13" s="6">
+        <v>4.0899999999999998E-6</v>
+      </c>
+      <c r="E13" s="6">
+        <v>9.2499999999999995E-6</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1.046E-5</v>
+      </c>
+      <c r="G13" s="6">
+        <v>2.08E-6</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1.31E-6</v>
+      </c>
+      <c r="I13" s="6">
+        <v>4.7999999999999998E-6</v>
+      </c>
+      <c r="J13" s="6">
+        <v>4.0199999999999996E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3.4999999999999999E-6</v>
+      </c>
+      <c r="D14" s="6">
+        <v>4.1999999999999996E-6</v>
+      </c>
+      <c r="E14" s="6">
+        <v>9.5599999999999999E-6</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1.181E-5</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1.6899999999999999E-6</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1.6700000000000001E-6</v>
+      </c>
+      <c r="I14" s="6">
+        <v>7.2799999999999998E-6</v>
+      </c>
+      <c r="J14" s="6">
+        <v>6.2199999999999997E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>10</v>
+      </c>
+      <c r="B15" s="7">
+        <v>2</v>
+      </c>
+      <c r="C15" s="6">
+        <v>4.2300000000000002E-6</v>
+      </c>
+      <c r="D15" s="6">
+        <v>4.9200000000000003E-6</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1.183E-5</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1.3159999999999999E-5</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1.68E-6</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="I15" s="6">
+        <v>8.14E-6</v>
+      </c>
+      <c r="J15" s="6">
+        <v>6.5599999999999999E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7">
+        <v>4</v>
+      </c>
+      <c r="C16" s="6">
+        <v>4.6500000000000004E-6</v>
+      </c>
+      <c r="D16" s="6">
+        <v>4.9100000000000004E-6</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1.2269999999999999E-5</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1.252E-5</v>
+      </c>
+      <c r="G16" s="6">
+        <v>2.0600000000000002E-6</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1.86E-6</v>
+      </c>
+      <c r="I16" s="6">
+        <v>7.9400000000000002E-6</v>
+      </c>
+      <c r="J16" s="6">
+        <v>7.2599999999999999E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6">
+        <v>4.5000000000000001E-6</v>
+      </c>
+      <c r="D17" s="6">
+        <v>5.0599999999999998E-6</v>
+      </c>
+      <c r="E17" s="6">
+        <v>7.8099999999999998E-6</v>
+      </c>
+      <c r="F17" s="6">
+        <v>9.5400000000000001E-6</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1.4899999999999999E-6</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1.5099999999999999E-6</v>
+      </c>
+      <c r="I17" s="6">
+        <v>4.0999999999999997E-6</v>
+      </c>
+      <c r="J17" s="6">
+        <v>3.8399999999999997E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>11</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2</v>
+      </c>
+      <c r="C18" s="6">
+        <v>5.0200000000000002E-6</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5.57E-6</v>
+      </c>
+      <c r="E18" s="6">
+        <v>7.79E-6</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1.0349999999999999E-5</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1.6199999999999999E-6</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1.5799999999999999E-6</v>
+      </c>
+      <c r="I18" s="6">
+        <v>3.9600000000000002E-6</v>
+      </c>
+      <c r="J18" s="6">
+        <v>3.4599999999999999E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>11</v>
+      </c>
+      <c r="B19" s="7">
+        <v>4</v>
+      </c>
+      <c r="C19" s="6">
+        <v>4.6999999999999999E-6</v>
+      </c>
+      <c r="D19" s="6">
+        <v>5.48E-6</v>
+      </c>
+      <c r="E19" s="6">
+        <v>8.1100000000000003E-6</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1.146E-5</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1.61E-6</v>
+      </c>
+      <c r="I19" s="6">
+        <v>5.0499999999999999E-6</v>
+      </c>
+      <c r="J19" s="6">
+        <v>4.1300000000000003E-6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>12</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6">
+        <v>7.2200000000000003E-6</v>
+      </c>
+      <c r="D20" s="6">
+        <v>9.5916279999999997E-6</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1.046E-5</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1.613E-5</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1.39E-6</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1.4699999999999999E-6</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1.322E-5</v>
+      </c>
+      <c r="J20" s="6">
+        <v>2.3300000000000001E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>12</v>
+      </c>
+      <c r="B21" s="7">
+        <v>2</v>
+      </c>
+      <c r="C21" s="6">
+        <v>7.4771139999999999E-6</v>
+      </c>
+      <c r="D21" s="6">
+        <v>9.5916279999999997E-6</v>
+      </c>
+      <c r="E21" s="6">
+        <v>8.8699999999999998E-6</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1.491E-5</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1.37E-6</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1.4899999999999999E-6</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1.0699999999999999E-5</v>
+      </c>
+      <c r="J21" s="6">
+        <v>4.1799999999999998E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>12</v>
+      </c>
+      <c r="B22" s="7">
+        <v>4</v>
+      </c>
+      <c r="C22" s="6">
+        <v>7.4771139999999999E-6</v>
+      </c>
+      <c r="D22" s="6">
+        <v>9.5916279999999997E-6</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1.2289999999999999E-5</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1.7050000000000001E-5</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1.7600000000000001E-6</v>
+      </c>
+      <c r="H22" s="6">
+        <v>1.9700000000000002E-6</v>
+      </c>
+      <c r="I22" s="6">
+        <v>1.0730000000000001E-5</v>
+      </c>
+      <c r="J22" s="6">
+        <v>8.6000000000000007E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>13</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6">
+        <v>3.2100000000000002E-6</v>
+      </c>
+      <c r="D23" s="6">
+        <v>3.1499999999999999E-6</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1.562E-5</v>
+      </c>
+      <c r="F23" s="6">
+        <v>3.1690000000000003E-5</v>
+      </c>
+      <c r="G23" s="6">
+        <v>2.1900000000000002E-6</v>
+      </c>
+      <c r="H23" s="6">
+        <v>1.9800000000000001E-6</v>
+      </c>
+      <c r="I23" s="6">
+        <v>5.3800000000000002E-6</v>
+      </c>
+      <c r="J23" s="6">
+        <v>6.4899999999999997E-6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>13</v>
+      </c>
+      <c r="B24" s="7">
+        <v>2</v>
+      </c>
+      <c r="C24" s="6">
+        <v>5.0499999999999999E-6</v>
+      </c>
+      <c r="D24" s="6">
+        <v>6.0100000000000001E-6</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1.361E-5</v>
+      </c>
+      <c r="F24" s="6">
+        <v>2.974E-5</v>
+      </c>
+      <c r="G24" s="6">
+        <v>2.6900000000000001E-6</v>
+      </c>
+      <c r="H24" s="6">
+        <v>2.8628200000000001E-6</v>
+      </c>
+      <c r="I24" s="6">
+        <v>7.1400000000000002E-6</v>
+      </c>
+      <c r="J24" s="6">
+        <v>7.3599999999999998E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>13</v>
+      </c>
+      <c r="B25" s="7">
+        <v>4</v>
+      </c>
+      <c r="C25" s="6">
+        <v>3.7900000000000001E-6</v>
+      </c>
+      <c r="D25" s="6">
+        <v>4.4499999999999997E-6</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1.8240000000000002E-5</v>
+      </c>
+      <c r="F25" s="6">
+        <v>3.3779999999999998E-5</v>
+      </c>
+      <c r="G25" s="6">
+        <v>2.6000000000000001E-6</v>
+      </c>
+      <c r="H25" s="6">
+        <v>2.4899999999999999E-6</v>
+      </c>
+      <c r="I25" s="6">
+        <v>8.7199999999999995E-6</v>
+      </c>
+      <c r="J25" s="6">
+        <v>9.7599999999999997E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>14</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6">
+        <v>4.8400000000000002E-6</v>
+      </c>
+      <c r="D26" s="6">
+        <v>9.5916279999999997E-6</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1.9729999999999999E-5</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1.558E-5</v>
+      </c>
+      <c r="G26" s="6">
+        <v>2.08E-6</v>
+      </c>
+      <c r="H26" s="6">
+        <v>2.8628200000000001E-6</v>
+      </c>
+      <c r="I26" s="6">
+        <v>7.5299999999999999E-6</v>
+      </c>
+      <c r="J26" s="6">
+        <v>7.6000000000000001E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>14</v>
+      </c>
+      <c r="B27" s="7">
+        <v>2</v>
+      </c>
+      <c r="C27" s="6">
+        <v>4.6099999999999999E-6</v>
+      </c>
+      <c r="D27" s="6">
+        <v>9.5916279999999997E-6</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1.3169999999999999E-5</v>
+      </c>
+      <c r="F27" s="6">
+        <v>6.6499999999999999E-6</v>
+      </c>
+      <c r="G27" s="6">
+        <v>2.48E-6</v>
+      </c>
+      <c r="H27" s="6">
+        <v>2.2299999999999998E-6</v>
+      </c>
+      <c r="I27" s="6">
+        <v>1.5318599999999999E-5</v>
+      </c>
+      <c r="J27" s="6">
+        <v>6.9399999999999996E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>14</v>
+      </c>
+      <c r="B28" s="7">
+        <v>4</v>
+      </c>
+      <c r="C28" s="6">
+        <v>4.5499999999999996E-6</v>
+      </c>
+      <c r="D28" s="6">
+        <v>9.5916279999999997E-6</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1.383E-5</v>
+      </c>
+      <c r="F28" s="6">
+        <v>7.61E-6</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1.9199999999999998E-6</v>
+      </c>
+      <c r="H28" s="6">
+        <v>2.7099999999999999E-6</v>
+      </c>
+      <c r="I28" s="6">
+        <v>1.5318599999999999E-5</v>
+      </c>
+      <c r="J28" s="6">
+        <v>7.2899999999999997E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>16</v>
+      </c>
+      <c r="B29" s="7">
+        <v>1</v>
+      </c>
+      <c r="C29" s="6">
+        <v>6.5200000000000003E-6</v>
+      </c>
+      <c r="D29" s="6">
+        <v>6.4200000000000004E-6</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1.5099999999999999E-5</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1.136E-5</v>
+      </c>
+      <c r="G29" s="6">
+        <v>8.42006E-7</v>
+      </c>
+      <c r="H29" s="6">
+        <v>9.9000000000000005E-7</v>
+      </c>
+      <c r="I29" s="6">
+        <v>6.5799999999999997E-6</v>
+      </c>
+      <c r="J29" s="6">
+        <v>6.5799999999999997E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <v>16</v>
+      </c>
+      <c r="B30" s="7">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6">
+        <v>6.3999999999999997E-6</v>
+      </c>
+      <c r="D30" s="6">
+        <v>5.0799999999999996E-6</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1.401E-5</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1.2119999999999999E-5</v>
+      </c>
+      <c r="G30" s="6">
+        <v>1.17E-6</v>
+      </c>
+      <c r="H30" s="6">
+        <v>1.3400000000000001E-6</v>
+      </c>
+      <c r="I30" s="6">
+        <v>1.059E-5</v>
+      </c>
+      <c r="J30" s="6">
+        <v>1.1219999999999999E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>16</v>
+      </c>
+      <c r="B31" s="7">
+        <v>4</v>
+      </c>
+      <c r="C31" s="6">
+        <v>7.0700000000000001E-6</v>
+      </c>
+      <c r="D31" s="6">
+        <v>5.6099999999999997E-6</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1.521E-5</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1.253E-5</v>
+      </c>
+      <c r="G31" s="6">
+        <v>8.42006E-7</v>
+      </c>
+      <c r="H31" s="6">
+        <v>1.11E-6</v>
+      </c>
+      <c r="I31" s="6">
+        <v>1.099E-5</v>
+      </c>
+      <c r="J31" s="6">
+        <v>1.137E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <v>17</v>
+      </c>
+      <c r="B32" s="7">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6">
+        <v>7.1899999999999998E-6</v>
+      </c>
+      <c r="D32" s="6">
+        <v>6.7800000000000003E-6</v>
+      </c>
+      <c r="E32" s="6">
+        <v>3.2499999999999998E-6</v>
+      </c>
+      <c r="F32" s="6">
+        <v>7.6199999999999999E-6</v>
+      </c>
+      <c r="G32" s="6">
+        <v>1.0100000000000001E-6</v>
+      </c>
+      <c r="H32" s="6">
+        <v>1.0300000000000001E-6</v>
+      </c>
+      <c r="I32" s="6">
+        <v>2.39E-6</v>
+      </c>
+      <c r="J32" s="6">
+        <v>2.3E-6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <v>17</v>
+      </c>
+      <c r="B33" s="7">
+        <v>2</v>
+      </c>
+      <c r="C33" s="6">
+        <v>7.4771139999999999E-6</v>
+      </c>
+      <c r="D33" s="6">
+        <v>6.64E-6</v>
+      </c>
+      <c r="E33" s="6">
+        <v>3.41E-6</v>
+      </c>
+      <c r="F33" s="6">
+        <v>5.9599999999999997E-6</v>
+      </c>
+      <c r="G33" s="6">
+        <v>9.5000000000000001E-7</v>
+      </c>
+      <c r="H33" s="6">
+        <v>8.8999999999999995E-7</v>
+      </c>
+      <c r="I33" s="6">
+        <v>4.4499999999999997E-6</v>
+      </c>
+      <c r="J33" s="6">
+        <v>6.7700000000000004E-6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <v>17</v>
+      </c>
+      <c r="B34" s="7">
+        <v>4</v>
+      </c>
+      <c r="C34" s="6">
+        <v>7.4771139999999999E-6</v>
+      </c>
+      <c r="D34" s="6">
+        <v>4.9699999999999998E-6</v>
+      </c>
+      <c r="E34" s="6">
+        <v>5.1599999999999997E-6</v>
+      </c>
+      <c r="F34" s="6">
+        <v>1.0200000000000001E-5</v>
+      </c>
+      <c r="G34" s="6">
+        <v>1.5200000000000001E-6</v>
+      </c>
+      <c r="H34" s="6">
+        <v>1.55E-6</v>
+      </c>
+      <c r="I34" s="6">
+        <v>1.9E-6</v>
+      </c>
+      <c r="J34" s="6">
+        <v>3.1700000000000001E-6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <v>18</v>
+      </c>
+      <c r="B35" s="7">
+        <v>1</v>
+      </c>
+      <c r="C35" s="6">
+        <v>2.6699999999999998E-6</v>
+      </c>
+      <c r="D35" s="6">
+        <v>3.7900000000000001E-6</v>
+      </c>
+      <c r="E35" s="6">
+        <v>5.2800000000000003E-6</v>
+      </c>
+      <c r="F35" s="6">
+        <v>9.4599999999999992E-6</v>
+      </c>
+      <c r="G35" s="6">
+        <v>1.0100000000000001E-6</v>
+      </c>
+      <c r="H35" s="6">
+        <v>1.4300000000000001E-6</v>
+      </c>
+      <c r="I35" s="6">
+        <v>5.6099999999999997E-6</v>
+      </c>
+      <c r="J35" s="6">
+        <v>7.5800000000000003E-6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <v>18</v>
+      </c>
+      <c r="B36" s="7">
+        <v>2</v>
+      </c>
+      <c r="C36" s="6">
+        <v>3.6799999999999999E-6</v>
+      </c>
+      <c r="D36" s="6">
+        <v>4.1699999999999999E-6</v>
+      </c>
+      <c r="E36" s="6">
+        <v>7.7300000000000005E-6</v>
+      </c>
+      <c r="F36" s="6">
+        <v>1.0519999999999999E-5</v>
+      </c>
+      <c r="G36" s="6">
+        <v>1.4699999999999999E-6</v>
+      </c>
+      <c r="H36" s="6">
+        <v>1.8300000000000001E-6</v>
+      </c>
+      <c r="I36" s="6">
+        <v>1.5318599999999999E-5</v>
+      </c>
+      <c r="J36" s="6">
+        <v>1.3334139999999999E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
+        <v>18</v>
+      </c>
+      <c r="B37" s="7">
+        <v>4</v>
+      </c>
+      <c r="C37" s="6">
+        <v>4.2599999999999999E-6</v>
+      </c>
+      <c r="D37" s="6">
+        <v>5.1699999999999996E-6</v>
+      </c>
+      <c r="E37" s="6">
+        <v>7.4200000000000001E-6</v>
+      </c>
+      <c r="F37" s="6">
+        <v>6.8399999999999997E-6</v>
+      </c>
+      <c r="G37" s="6">
+        <v>1.7999999999999999E-6</v>
+      </c>
+      <c r="H37" s="6">
+        <v>1.4899999999999999E-6</v>
+      </c>
+      <c r="I37" s="6">
+        <v>6.55E-6</v>
+      </c>
+      <c r="J37" s="6">
+        <v>1.0710000000000001E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
+        <v>19</v>
+      </c>
+      <c r="B38" s="7">
+        <v>1</v>
+      </c>
+      <c r="C38" s="6">
+        <v>3.19E-6</v>
+      </c>
+      <c r="D38" s="6">
+        <v>3.49E-6</v>
+      </c>
+      <c r="E38" s="6">
+        <v>3.6100000000000002E-6</v>
+      </c>
+      <c r="F38" s="6">
+        <v>2.7700000000000002E-6</v>
+      </c>
+      <c r="G38" s="6">
+        <v>1.2699999999999999E-6</v>
+      </c>
+      <c r="H38" s="6">
+        <v>1.4899999999999999E-6</v>
+      </c>
+      <c r="I38" s="6">
+        <v>6.6200000000000001E-6</v>
+      </c>
+      <c r="J38" s="6">
+        <v>7.3599999999999998E-6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
+        <v>19</v>
+      </c>
+      <c r="B39" s="7">
+        <v>2</v>
+      </c>
+      <c r="C39" s="6">
+        <v>3.8299999999999998E-6</v>
+      </c>
+      <c r="D39" s="6">
+        <v>4.25E-6</v>
+      </c>
+      <c r="E39" s="6">
+        <v>3.8099999999999999E-6</v>
+      </c>
+      <c r="F39" s="6">
+        <v>5.6500000000000001E-6</v>
+      </c>
+      <c r="G39" s="6">
+        <v>1.6199999999999999E-6</v>
+      </c>
+      <c r="H39" s="6">
+        <v>1.8199999999999999E-6</v>
+      </c>
+      <c r="I39" s="6">
+        <v>8.2300000000000008E-6</v>
+      </c>
+      <c r="J39" s="6">
+        <v>1.3334139999999999E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
+        <v>19</v>
+      </c>
+      <c r="B40" s="7">
+        <v>4</v>
+      </c>
+      <c r="C40" s="6">
+        <v>3.2399999999999999E-6</v>
+      </c>
+      <c r="D40" s="6">
+        <v>3.58E-6</v>
+      </c>
+      <c r="E40" s="6">
+        <v>3.1300000000000001E-6</v>
+      </c>
+      <c r="F40" s="6">
+        <v>3.8399999999999997E-6</v>
+      </c>
+      <c r="G40" s="6">
+        <v>1.86E-6</v>
+      </c>
+      <c r="H40" s="6">
+        <v>1.7E-6</v>
+      </c>
+      <c r="I40" s="6">
+        <v>7.6399999999999997E-6</v>
+      </c>
+      <c r="J40" s="6">
+        <v>7.3000000000000004E-6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
+        <v>20</v>
+      </c>
+      <c r="B41" s="7">
+        <v>1</v>
+      </c>
+      <c r="C41" s="6">
+        <v>3.8199999999999998E-6</v>
+      </c>
+      <c r="D41" s="6">
+        <v>4.4900000000000002E-6</v>
+      </c>
+      <c r="E41" s="6">
+        <v>3.6500000000000002E-6</v>
+      </c>
+      <c r="F41" s="6">
+        <v>4.5000000000000001E-6</v>
+      </c>
+      <c r="G41" s="6">
+        <v>2.21E-6</v>
+      </c>
+      <c r="H41" s="6">
+        <v>1.7E-6</v>
+      </c>
+      <c r="I41" s="6">
+        <v>4.07E-6</v>
+      </c>
+      <c r="J41" s="6">
+        <v>2.2299999999999998E-6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
+        <v>20</v>
+      </c>
+      <c r="B42" s="7">
+        <v>2</v>
+      </c>
+      <c r="C42" s="6">
+        <v>4.1699999999999999E-6</v>
+      </c>
+      <c r="D42" s="6">
+        <v>6.0399999999999998E-6</v>
+      </c>
+      <c r="E42" s="6">
+        <v>5.31E-6</v>
+      </c>
+      <c r="F42" s="6">
+        <v>5.4299999999999997E-6</v>
+      </c>
+      <c r="G42" s="6">
+        <v>1.86E-6</v>
+      </c>
+      <c r="H42" s="6">
+        <v>1.4899999999999999E-6</v>
+      </c>
+      <c r="I42" s="6">
+        <v>4.07E-6</v>
+      </c>
+      <c r="J42" s="6">
+        <v>4.07E-6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
+        <v>20</v>
+      </c>
+      <c r="B43" s="7">
+        <v>4</v>
+      </c>
+      <c r="C43" s="6">
+        <v>4.0400000000000003E-6</v>
+      </c>
+      <c r="D43" s="6">
+        <v>4.9799999999999998E-6</v>
+      </c>
+      <c r="E43" s="6">
+        <v>5.9200000000000001E-6</v>
+      </c>
+      <c r="F43" s="6">
+        <v>5.5300000000000004E-6</v>
+      </c>
+      <c r="G43" s="6">
+        <v>2.4099999999999998E-6</v>
+      </c>
+      <c r="H43" s="6">
+        <v>2.0099999999999998E-6</v>
+      </c>
+      <c r="I43" s="6">
+        <v>3.8E-6</v>
+      </c>
+      <c r="J43" s="6">
+        <v>4.3200000000000001E-6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
+        <v>21</v>
+      </c>
+      <c r="B44" s="7">
+        <v>1</v>
+      </c>
+      <c r="C44" s="6">
+        <v>3.0800000000000002E-6</v>
+      </c>
+      <c r="D44" s="6">
+        <v>4.6700000000000002E-6</v>
+      </c>
+      <c r="E44" s="6">
+        <v>6.8600000000000004E-6</v>
+      </c>
+      <c r="F44" s="6">
+        <v>9.8400000000000007E-6</v>
+      </c>
+      <c r="G44" s="6">
+        <v>8.7000000000000003E-7</v>
+      </c>
+      <c r="H44" s="6">
+        <v>7.8718000000000004E-7</v>
+      </c>
+      <c r="I44" s="6">
+        <v>5.9499999999999998E-6</v>
+      </c>
+      <c r="J44" s="6">
+        <v>6.0299999999999999E-6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
+        <v>21</v>
+      </c>
+      <c r="B45" s="7">
+        <v>2</v>
+      </c>
+      <c r="C45" s="6">
+        <v>4.3599999999999998E-6</v>
+      </c>
+      <c r="D45" s="6">
+        <v>6.0700000000000003E-6</v>
+      </c>
+      <c r="E45" s="6">
+        <v>9.6500000000000008E-6</v>
+      </c>
+      <c r="F45" s="6">
+        <v>9.8199999999999992E-6</v>
+      </c>
+      <c r="G45" s="6">
+        <v>1.1400000000000001E-6</v>
+      </c>
+      <c r="H45" s="6">
+        <v>1.1000000000000001E-6</v>
+      </c>
+      <c r="I45" s="6">
+        <v>7.0700000000000001E-6</v>
+      </c>
+      <c r="J45" s="6">
+        <v>5.0200000000000002E-6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
+        <v>21</v>
+      </c>
+      <c r="B46" s="7">
+        <v>4</v>
+      </c>
+      <c r="C46" s="6">
+        <v>3.3299999999999999E-6</v>
+      </c>
+      <c r="D46" s="6">
+        <v>7.1899999999999998E-6</v>
+      </c>
+      <c r="E46" s="6">
+        <v>1.0180000000000001E-5</v>
+      </c>
+      <c r="F46" s="6">
+        <v>1.0030000000000001E-5</v>
+      </c>
+      <c r="G46" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H46" s="6">
+        <v>7.8718000000000004E-7</v>
+      </c>
+      <c r="I46" s="6">
+        <v>5.4999999999999999E-6</v>
+      </c>
+      <c r="J46" s="6">
+        <v>6.8000000000000001E-6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
+        <v>22</v>
+      </c>
+      <c r="B47" s="7">
+        <v>1</v>
+      </c>
+      <c r="C47" s="6">
+        <v>5.8699999999999997E-6</v>
+      </c>
+      <c r="D47" s="6">
+        <v>7.4699999999999996E-6</v>
+      </c>
+      <c r="E47" s="6">
+        <v>3.4669999999999998E-5</v>
+      </c>
+      <c r="F47" s="6">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="G47" s="6">
+        <v>2.2699999999999999E-6</v>
+      </c>
+      <c r="H47" s="6">
+        <v>2.52E-6</v>
+      </c>
+      <c r="I47" s="6">
+        <v>3.2100000000000002E-6</v>
+      </c>
+      <c r="J47" s="6">
+        <v>4.9599999999999999E-6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
+        <v>22</v>
+      </c>
+      <c r="B48" s="7">
+        <v>2</v>
+      </c>
+      <c r="C48" s="6">
+        <v>6.6499999999999999E-6</v>
+      </c>
+      <c r="D48" s="6">
+        <v>8.3999999999999992E-6</v>
+      </c>
+      <c r="E48" s="6">
+        <v>2.9519999999999999E-5</v>
+      </c>
+      <c r="F48" s="6">
+        <v>6.2400000000000004E-6</v>
+      </c>
+      <c r="G48" s="6">
+        <v>2.887994E-6</v>
+      </c>
+      <c r="H48" s="6">
+        <v>2.8628200000000001E-6</v>
+      </c>
+      <c r="I48" s="6">
+        <v>4.5499999999999996E-6</v>
+      </c>
+      <c r="J48" s="6">
+        <v>5.4099999999999999E-6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
+        <v>22</v>
+      </c>
+      <c r="B49" s="7">
+        <v>4</v>
+      </c>
+      <c r="C49" s="6">
+        <v>6.1399999999999997E-6</v>
+      </c>
+      <c r="D49" s="6">
+        <v>8.1200000000000002E-6</v>
+      </c>
+      <c r="E49" s="6">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="F49" s="6">
+        <v>8.0700000000000007E-6</v>
+      </c>
+      <c r="G49" s="6">
+        <v>2.1100000000000001E-6</v>
+      </c>
+      <c r="H49" s="6">
+        <v>2.2699999999999999E-6</v>
+      </c>
+      <c r="I49" s="6">
+        <v>3.6799999999999999E-6</v>
+      </c>
+      <c r="J49" s="6">
+        <v>6.2199999999999997E-6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="7">
+        <v>23</v>
+      </c>
+      <c r="B50" s="7">
+        <v>1</v>
+      </c>
+      <c r="C50" s="6">
+        <v>1.8728859999999999E-6</v>
+      </c>
+      <c r="D50" s="6">
+        <v>3.7900000000000001E-6</v>
+      </c>
+      <c r="E50" s="6">
+        <v>8.9400000000000008E-6</v>
+      </c>
+      <c r="F50" s="6">
+        <v>7.0299999999999996E-6</v>
+      </c>
+      <c r="G50" s="6">
+        <v>1.57E-6</v>
+      </c>
+      <c r="H50" s="6">
+        <v>1.61E-6</v>
+      </c>
+      <c r="I50" s="6">
+        <v>9.3500000000000003E-6</v>
+      </c>
+      <c r="J50" s="6">
+        <v>1.168E-5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="7">
+        <v>23</v>
+      </c>
+      <c r="B51" s="7">
+        <v>2</v>
+      </c>
+      <c r="C51" s="6">
+        <v>3.0900000000000001E-6</v>
+      </c>
+      <c r="D51" s="6">
+        <v>5.7200000000000003E-6</v>
+      </c>
+      <c r="E51" s="6">
+        <v>1.0329999999999999E-5</v>
+      </c>
+      <c r="F51" s="6">
+        <v>6.5899999999999996E-6</v>
+      </c>
+      <c r="G51" s="6">
+        <v>2.1900000000000002E-6</v>
+      </c>
+      <c r="H51" s="6">
+        <v>1.72E-6</v>
+      </c>
+      <c r="I51" s="6">
+        <v>9.3999999999999998E-6</v>
+      </c>
+      <c r="J51" s="6">
+        <v>1.2469999999999999E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="7">
+        <v>23</v>
+      </c>
+      <c r="B52" s="7">
+        <v>4</v>
+      </c>
+      <c r="C52" s="6">
+        <v>4.4800000000000003E-6</v>
+      </c>
+      <c r="D52" s="6">
+        <v>6.1700000000000002E-6</v>
+      </c>
+      <c r="E52" s="6">
+        <v>5.6799999999999998E-6</v>
+      </c>
+      <c r="F52" s="6">
+        <v>5.5199999999999997E-6</v>
+      </c>
+      <c r="G52" s="6">
+        <v>1.8500000000000001E-6</v>
+      </c>
+      <c r="H52" s="6">
+        <v>1.9199999999999998E-6</v>
+      </c>
+      <c r="I52" s="6">
+        <v>9.4299999999999995E-6</v>
+      </c>
+      <c r="J52" s="6">
+        <v>1.3334139999999999E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="7">
+        <v>25</v>
+      </c>
+      <c r="B53" s="7">
+        <v>1</v>
+      </c>
+      <c r="C53" s="6">
+        <v>4.5399999999999997E-6</v>
+      </c>
+      <c r="D53" s="6">
+        <v>3.4800000000000001E-6</v>
+      </c>
+      <c r="E53" s="6">
+        <v>6.3199999999999996E-6</v>
+      </c>
+      <c r="F53" s="6">
+        <v>1.2289999999999999E-5</v>
+      </c>
+      <c r="G53" s="6">
+        <v>1.4899999999999999E-6</v>
+      </c>
+      <c r="H53" s="6">
+        <v>1.59E-6</v>
+      </c>
+      <c r="I53" s="6">
+        <v>4.87E-6</v>
+      </c>
+      <c r="J53" s="6">
+        <v>4.4299999999999999E-6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="7">
+        <v>25</v>
+      </c>
+      <c r="B54" s="7">
+        <v>2</v>
+      </c>
+      <c r="C54" s="6">
+        <v>4.78E-6</v>
+      </c>
+      <c r="D54" s="6">
+        <v>1.99E-6</v>
+      </c>
+      <c r="E54" s="6">
+        <v>6.3999999999999997E-6</v>
+      </c>
+      <c r="F54" s="6">
+        <v>9.0299999999999999E-6</v>
+      </c>
+      <c r="G54" s="6">
+        <v>2.0700000000000001E-6</v>
+      </c>
+      <c r="H54" s="6">
+        <v>2.2400000000000002E-6</v>
+      </c>
+      <c r="I54" s="6">
+        <v>6.9700000000000002E-6</v>
+      </c>
+      <c r="J54" s="6">
+        <v>8.7399999999999993E-6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="7">
+        <v>25</v>
+      </c>
+      <c r="B55" s="7">
+        <v>4</v>
+      </c>
+      <c r="C55" s="6">
+        <v>3.01E-6</v>
+      </c>
+      <c r="D55" s="6">
+        <v>1.5799999999999999E-6</v>
+      </c>
+      <c r="E55" s="6">
+        <v>2.7599999999999998E-6</v>
+      </c>
+      <c r="F55" s="6">
+        <v>7.9500000000000001E-6</v>
+      </c>
+      <c r="G55" s="6">
+        <v>1.5799999999999999E-6</v>
+      </c>
+      <c r="H55" s="6">
+        <v>1.4300000000000001E-6</v>
+      </c>
+      <c r="I55" s="6">
+        <v>4.3599999999999998E-6</v>
+      </c>
+      <c r="J55" s="6">
+        <v>4.6600000000000003E-6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="7">
+        <v>26</v>
+      </c>
+      <c r="B56" s="7">
+        <v>1</v>
+      </c>
+      <c r="C56" s="6">
+        <v>4.6199999999999998E-6</v>
+      </c>
+      <c r="D56" s="6">
+        <v>9.5916279999999997E-6</v>
+      </c>
+      <c r="E56" s="6">
+        <v>8.1499999999999999E-6</v>
+      </c>
+      <c r="F56" s="6">
+        <v>1.395E-5</v>
+      </c>
+      <c r="G56" s="6">
+        <v>2.887994E-6</v>
+      </c>
+      <c r="H56" s="6">
+        <v>2.8628200000000001E-6</v>
+      </c>
+      <c r="I56" s="6">
+        <v>1.011E-5</v>
+      </c>
+      <c r="J56" s="6">
+        <v>1.0720000000000001E-5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="7">
+        <v>26</v>
+      </c>
+      <c r="B57" s="7">
+        <v>2</v>
+      </c>
+      <c r="C57" s="6">
+        <v>4.7099999999999998E-6</v>
+      </c>
+      <c r="D57" s="6">
+        <v>9.5916279999999997E-6</v>
+      </c>
+      <c r="E57" s="6">
+        <v>8.5399999999999996E-6</v>
+      </c>
+      <c r="F57" s="6">
+        <v>1.3519999999999999E-5</v>
+      </c>
+      <c r="G57" s="6">
+        <v>2.887994E-6</v>
+      </c>
+      <c r="H57" s="6">
+        <v>2.7599999999999998E-6</v>
+      </c>
+      <c r="I57" s="6">
+        <v>1.2819999999999999E-5</v>
+      </c>
+      <c r="J57" s="6">
+        <v>9.5799999999999998E-6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="7">
+        <v>26</v>
+      </c>
+      <c r="B58" s="7">
+        <v>4</v>
+      </c>
+      <c r="C58" s="6">
+        <v>5.8300000000000001E-6</v>
+      </c>
+      <c r="D58" s="6">
+        <v>9.5916279999999997E-6</v>
+      </c>
+      <c r="E58" s="6">
+        <v>9.6399999999999992E-6</v>
+      </c>
+      <c r="F58" s="6">
+        <v>1.277E-5</v>
+      </c>
+      <c r="G58" s="6">
+        <v>2.7499999999999999E-6</v>
+      </c>
+      <c r="H58" s="6">
+        <v>2.8628200000000001E-6</v>
+      </c>
+      <c r="I58" s="6">
+        <v>1.5318599999999999E-5</v>
+      </c>
+      <c r="J58" s="6">
+        <v>1.111E-5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="7">
+        <v>27</v>
+      </c>
+      <c r="B59" s="7">
+        <v>1</v>
+      </c>
+      <c r="C59" s="6">
+        <v>5.0799999999999996E-6</v>
+      </c>
+      <c r="D59" s="6">
+        <v>3.6200000000000001E-6</v>
+      </c>
+      <c r="E59" s="6">
+        <v>7.43E-6</v>
+      </c>
+      <c r="F59" s="6">
+        <v>7.5299999999999999E-6</v>
+      </c>
+      <c r="G59" s="6">
+        <v>1.77E-6</v>
+      </c>
+      <c r="H59" s="6">
+        <v>2.0099999999999998E-6</v>
+      </c>
+      <c r="I59" s="6">
+        <v>6.9399999999999996E-6</v>
+      </c>
+      <c r="J59" s="6">
+        <v>8.9900000000000003E-6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="7">
+        <v>27</v>
+      </c>
+      <c r="B60" s="7">
+        <v>2</v>
+      </c>
+      <c r="C60" s="6">
+        <v>6.6200000000000001E-6</v>
+      </c>
+      <c r="D60" s="6">
+        <v>4.2799999999999997E-6</v>
+      </c>
+      <c r="E60" s="6">
+        <v>8.0199999999999994E-6</v>
+      </c>
+      <c r="F60" s="6">
+        <v>8.5299999999999996E-6</v>
+      </c>
+      <c r="G60" s="6">
+        <v>2.3800000000000001E-6</v>
+      </c>
+      <c r="H60" s="6">
+        <v>2.4200000000000001E-6</v>
+      </c>
+      <c r="I60" s="6">
+        <v>7.2799999999999998E-6</v>
+      </c>
+      <c r="J60" s="6">
+        <v>1.145E-5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="7">
+        <v>27</v>
+      </c>
+      <c r="B61" s="7">
+        <v>4</v>
+      </c>
+      <c r="C61" s="6">
+        <v>5.4600000000000002E-6</v>
+      </c>
+      <c r="D61" s="6">
+        <v>4.07E-6</v>
+      </c>
+      <c r="E61" s="6">
+        <v>6.7100000000000001E-6</v>
+      </c>
+      <c r="F61" s="6">
+        <v>7.6899999999999992E-6</v>
+      </c>
+      <c r="G61" s="6">
+        <v>1.9199999999999998E-6</v>
+      </c>
+      <c r="H61" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I61" s="6">
+        <v>8.14E-6</v>
+      </c>
+      <c r="J61" s="6">
+        <v>1.252E-5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="7">
+        <v>28</v>
+      </c>
+      <c r="B62" s="7">
+        <v>1</v>
+      </c>
+      <c r="C62" s="6">
+        <v>3.8199999999999998E-6</v>
+      </c>
+      <c r="D62" s="6">
+        <v>3.49E-6</v>
+      </c>
+      <c r="E62" s="6">
+        <v>3.3900000000000002E-6</v>
+      </c>
+      <c r="F62" s="6">
+        <v>3.9299999999999996E-6</v>
+      </c>
+      <c r="G62" s="6">
+        <v>8.7000000000000003E-7</v>
+      </c>
+      <c r="H62" s="6">
+        <v>1.66E-6</v>
+      </c>
+      <c r="I62" s="6">
+        <v>2.83E-6</v>
+      </c>
+      <c r="J62" s="6">
+        <v>7.25E-6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="7">
+        <v>28</v>
+      </c>
+      <c r="B63" s="7">
+        <v>2</v>
+      </c>
+      <c r="C63" s="6">
+        <v>3.27E-6</v>
+      </c>
+      <c r="D63" s="6">
+        <v>3.4599999999999999E-6</v>
+      </c>
+      <c r="E63" s="6">
+        <v>9.2900000000000008E-6</v>
+      </c>
+      <c r="F63" s="6">
+        <v>4.5800000000000002E-6</v>
+      </c>
+      <c r="G63" s="6">
+        <v>1.95E-6</v>
+      </c>
+      <c r="H63" s="6">
+        <v>1.02E-6</v>
+      </c>
+      <c r="I63" s="6">
+        <v>8.6999999999999997E-6</v>
+      </c>
+      <c r="J63" s="6">
+        <v>1.149E-5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="7">
+        <v>28</v>
+      </c>
+      <c r="B64" s="7">
+        <v>4</v>
+      </c>
+      <c r="C64" s="6">
+        <v>3.6799999999999999E-6</v>
+      </c>
+      <c r="D64" s="6">
+        <v>2.7300000000000001E-6</v>
+      </c>
+      <c r="E64" s="6">
+        <v>7.0099999999999998E-6</v>
+      </c>
+      <c r="F64" s="6">
+        <v>2.1440000000000001E-5</v>
+      </c>
+      <c r="G64" s="6">
+        <v>1.46E-6</v>
+      </c>
+      <c r="H64" s="6">
+        <v>2.1799999999999999E-6</v>
+      </c>
+      <c r="I64" s="6">
+        <v>8.2800000000000003E-6</v>
+      </c>
+      <c r="J64" s="6">
+        <v>1.2330000000000001E-5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="7">
+        <v>30</v>
+      </c>
+      <c r="B65" s="7">
+        <v>1</v>
+      </c>
+      <c r="C65" s="6">
+        <v>4.0300000000000004E-6</v>
+      </c>
+      <c r="D65" s="6">
+        <v>5.3800000000000002E-6</v>
+      </c>
+      <c r="E65" s="6">
+        <v>6.55E-6</v>
+      </c>
+      <c r="F65" s="6">
+        <v>6.5400000000000001E-6</v>
+      </c>
+      <c r="G65" s="6">
+        <v>2.7999999999999999E-6</v>
+      </c>
+      <c r="H65" s="6">
+        <v>2.8628200000000001E-6</v>
+      </c>
+      <c r="I65" s="6">
+        <v>4.0899999999999998E-6</v>
+      </c>
+      <c r="J65" s="6">
+        <v>5.0499999999999999E-6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="7">
+        <v>30</v>
+      </c>
+      <c r="B66" s="7">
+        <v>2</v>
+      </c>
+      <c r="C66" s="6">
+        <v>7.4771139999999999E-6</v>
+      </c>
+      <c r="D66" s="6">
+        <v>6.2500000000000003E-6</v>
+      </c>
+      <c r="E66" s="6">
+        <v>5.4199999999999998E-6</v>
+      </c>
+      <c r="F66" s="6">
+        <v>9.7200000000000001E-6</v>
+      </c>
+      <c r="G66" s="6">
+        <v>2.08E-6</v>
+      </c>
+      <c r="H66" s="6">
+        <v>2.3099999999999999E-6</v>
+      </c>
+      <c r="I66" s="6">
+        <v>3.9700000000000001E-6</v>
+      </c>
+      <c r="J66" s="6">
+        <v>4.2300000000000002E-6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="7">
+        <v>30</v>
+      </c>
+      <c r="B67" s="7">
+        <v>4</v>
+      </c>
+      <c r="C67" s="6">
+        <v>7.1899999999999998E-6</v>
+      </c>
+      <c r="D67" s="6">
+        <v>6.9299999999999997E-6</v>
+      </c>
+      <c r="E67" s="6">
+        <v>5.6699999999999999E-6</v>
+      </c>
+      <c r="F67" s="6">
+        <v>8.0499999999999992E-6</v>
+      </c>
+      <c r="G67" s="6">
+        <v>2.5299999999999999E-6</v>
+      </c>
+      <c r="H67" s="6">
+        <v>2.1500000000000002E-6</v>
+      </c>
+      <c r="I67" s="6">
+        <v>3.9099999999999998E-6</v>
+      </c>
+      <c r="J67" s="6">
+        <v>4.7199999999999997E-6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="7">
+        <v>31</v>
+      </c>
+      <c r="B68" s="7">
+        <v>1</v>
+      </c>
+      <c r="C68" s="6">
+        <v>5.1800000000000004E-6</v>
+      </c>
+      <c r="D68" s="6">
+        <v>7.6699999999999994E-6</v>
+      </c>
+      <c r="E68" s="6">
+        <v>7.9200000000000004E-6</v>
+      </c>
+      <c r="F68" s="6">
+        <v>1.7790000000000001E-5</v>
+      </c>
+      <c r="G68" s="6">
+        <v>1.81E-6</v>
+      </c>
+      <c r="H68" s="6">
+        <v>1.77E-6</v>
+      </c>
+      <c r="I68" s="6">
+        <v>4.4900000000000002E-6</v>
+      </c>
+      <c r="J68" s="6">
+        <v>7.1799999999999999E-6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="7">
+        <v>31</v>
+      </c>
+      <c r="B69" s="7">
+        <v>2</v>
+      </c>
+      <c r="C69" s="6">
+        <v>6.8299999999999998E-6</v>
+      </c>
+      <c r="D69" s="6">
+        <v>9.5916279999999997E-6</v>
+      </c>
+      <c r="E69" s="6">
+        <v>9.5400000000000001E-6</v>
+      </c>
+      <c r="F69" s="6">
+        <v>1.239E-5</v>
+      </c>
+      <c r="G69" s="6">
+        <v>2.1100000000000001E-6</v>
+      </c>
+      <c r="H69" s="6">
+        <v>1.9700000000000002E-6</v>
+      </c>
+      <c r="I69" s="6">
+        <v>6.0900000000000001E-6</v>
+      </c>
+      <c r="J69" s="6">
+        <v>6.19E-6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="7">
+        <v>31</v>
+      </c>
+      <c r="B70" s="7">
+        <v>4</v>
+      </c>
+      <c r="C70" s="6">
+        <v>5.7599999999999999E-6</v>
+      </c>
+      <c r="D70" s="6">
+        <v>8.1999999999999994E-6</v>
+      </c>
+      <c r="E70" s="6">
+        <v>8.8899999999999996E-6</v>
+      </c>
+      <c r="F70" s="6">
+        <v>1.324E-5</v>
+      </c>
+      <c r="G70" s="6">
+        <v>1.9700000000000002E-6</v>
+      </c>
+      <c r="H70" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I70" s="6">
+        <v>5.4700000000000001E-6</v>
+      </c>
+      <c r="J70" s="6">
+        <v>9.3200000000000006E-6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="7">
+        <v>32</v>
+      </c>
+      <c r="B71" s="7">
+        <v>1</v>
+      </c>
+      <c r="C71" s="6">
+        <v>3.3000000000000002E-6</v>
+      </c>
+      <c r="D71" s="6">
+        <v>4.2599999999999999E-6</v>
+      </c>
+      <c r="E71" s="6">
+        <v>4.6E-6</v>
+      </c>
+      <c r="F71" s="6">
+        <v>1.005E-5</v>
+      </c>
+      <c r="G71" s="6">
+        <v>1.9E-6</v>
+      </c>
+      <c r="H71" s="6">
+        <v>2.0600000000000002E-6</v>
+      </c>
+      <c r="I71" s="6">
+        <v>2.3999999999999999E-6</v>
+      </c>
+      <c r="J71" s="6">
+        <v>5.5300000000000004E-6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="7">
+        <v>32</v>
+      </c>
+      <c r="B72" s="7">
+        <v>2</v>
+      </c>
+      <c r="C72" s="6">
+        <v>3.8600000000000003E-6</v>
+      </c>
+      <c r="D72" s="6">
+        <v>5.1200000000000001E-6</v>
+      </c>
+      <c r="E72" s="6">
+        <v>1.277E-5</v>
+      </c>
+      <c r="F72" s="6">
+        <v>1.26E-5</v>
+      </c>
+      <c r="G72" s="6">
+        <v>2.5600000000000001E-6</v>
+      </c>
+      <c r="H72" s="6">
+        <v>2.5799999999999999E-6</v>
+      </c>
+      <c r="I72" s="6">
+        <v>1.99E-6</v>
+      </c>
+      <c r="J72" s="6">
+        <v>4.9400000000000001E-6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="7">
+        <v>32</v>
+      </c>
+      <c r="B73" s="7">
+        <v>4</v>
+      </c>
+      <c r="C73" s="6">
+        <v>5.7100000000000004E-6</v>
+      </c>
+      <c r="D73" s="6">
+        <v>8.0900000000000005E-6</v>
+      </c>
+      <c r="E73" s="6">
+        <v>7.4800000000000004E-6</v>
+      </c>
+      <c r="F73" s="6">
+        <v>6.5599999999999999E-6</v>
+      </c>
+      <c r="G73" s="6">
+        <v>2.887994E-6</v>
+      </c>
+      <c r="H73" s="6">
+        <v>2.8628200000000001E-6</v>
+      </c>
+      <c r="I73" s="6">
+        <v>6.4799999999999998E-6</v>
+      </c>
+      <c r="J73" s="6">
+        <v>6.2299999999999996E-6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D74" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675C4E77-1184-9E44-BBF4-37AD23EFADB5}">
+  <dimension ref="A1:R73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>4.3100000000000002E-6</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5.6500000000000001E-6</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1.0210000000000001E-5</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2.0270000000000001E-5</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2.4499999999999998E-6</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2.4899999999999999E-6</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1.03E-5</v>
+      </c>
+      <c r="J2" s="5">
+        <v>6.4099999999999996E-6</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5.2599999999999996E-6</v>
+      </c>
+      <c r="D3" s="5">
+        <v>7.4200000000000001E-6</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1.06E-5</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2.4049999999999998E-5</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1.7799999999999999E-6</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1.6899999999999999E-6</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1.2629999999999999E-5</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1.562E-5</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1.22001603</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1.31405127</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1.03809795</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.1867166600000001</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.72608532999999997</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.67810652000000005</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1.2253370699999999</v>
+      </c>
+      <c r="R3" s="2">
+        <v>2.4354201500000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>4.95E-6</v>
+      </c>
+      <c r="D4" s="5">
+        <v>7.0199999999999997E-6</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1.136E-5</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2.5089999999999999E-5</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1.46E-6</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1.55E-6</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1.024E-5</v>
+      </c>
+      <c r="J4" s="5">
+        <v>7.7800000000000001E-6</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1.14980718</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1.2440709000000001</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1.1125643599999999</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.23788114</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.5978753</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.62341546000000003</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.99347668</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1.2123252799999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4.6500000000000004E-6</v>
+      </c>
+      <c r="D5" s="5">
+        <v>5.4600000000000002E-6</v>
+      </c>
+      <c r="E5" s="5">
+        <v>8.1499999999999999E-6</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2.7330000000000001E-5</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1.95E-6</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1.68E-6</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1.173E-5</v>
+      </c>
+      <c r="J5" s="5">
+        <v>8.4300000000000006E-6</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4.3800000000000004E-6</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5.7400000000000001E-6</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8.8899999999999996E-6</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2.694E-5</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1.8700000000000001E-6</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1.2119999999999999E-5</v>
+      </c>
+      <c r="J6" s="5">
+        <v>7.61E-6</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.94169342</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1.0504722900000001</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1.09140236</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.98563822999999995</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.95561249999999998</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1.19213338</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1.0336802899999999</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.90372288999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5">
+        <v>5.5500000000000002E-6</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6.1999999999999999E-6</v>
+      </c>
+      <c r="E7" s="5">
+        <v>9.6099999999999995E-6</v>
+      </c>
+      <c r="F7" s="5">
+        <v>3.1930000000000001E-5</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2.1100000000000001E-6</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2.0099999999999998E-6</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1.5930000000000002E-5</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1.17E-5</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1.1923772100000001</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1.1343068999999999</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1.1795104999999999</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1.1683250599999999</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1.0779444300000001</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1.19716395</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1.3579016500000001</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1.38836154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>6.4999999999999996E-6</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2.5299999999999999E-6</v>
+      </c>
+      <c r="E8" s="5">
+        <v>9.0299999999999999E-6</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1.364E-5</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2.03E-6</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3.4400000000000001E-6</v>
+      </c>
+      <c r="I8" s="5">
+        <v>4.3100000000000002E-6</v>
+      </c>
+      <c r="J8" s="5">
+        <v>3.7100000000000001E-6</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3.7799999999999998E-6</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3.6899999999999998E-6</v>
+      </c>
+      <c r="E9" s="5">
+        <v>6.6699999999999997E-6</v>
+      </c>
+      <c r="F9" s="5">
+        <v>8.3599999999999996E-6</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1.7799999999999999E-6</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2.2800000000000002E-6</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2.4600000000000002E-5</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1.857E-5</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.58179278000000001</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1.4589082799999999</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.73811567</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.61275634000000001</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.87795407000000003</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.66208087999999998</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>5.7068514500000003</v>
+      </c>
+      <c r="R9" s="2">
+        <v>5.0044877699999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1.205E-5</v>
+      </c>
+      <c r="D10" s="5">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="E10" s="5">
+        <v>9.5599999999999999E-6</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1.3869999999999999E-5</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1.4699999999999999E-6</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2.17E-6</v>
+      </c>
+      <c r="I10" s="5">
+        <v>7.1899999999999998E-6</v>
+      </c>
+      <c r="J10" s="5">
+        <v>4.5499999999999996E-6</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1.8525400999999999</v>
+      </c>
+      <c r="L10" s="2">
+        <v>2.7654740800000002</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1.05801211</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1.0170743200000001</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.72714743999999998</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.62990899</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1.66733222</v>
+      </c>
+      <c r="R10" s="2">
+        <v>1.22463714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>4.7500000000000003E-6</v>
+      </c>
+      <c r="D11" s="5">
+        <v>4.3599999999999998E-6</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1.101E-5</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1.308E-5</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2.5000000000000002E-6</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1.33E-6</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2.4810000000000001E-5</v>
+      </c>
+      <c r="J11" s="5">
+        <v>5.9200000000000001E-6</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5">
+        <v>5.3900000000000001E-6</v>
+      </c>
+      <c r="D12" s="5">
+        <v>4.6700000000000002E-6</v>
+      </c>
+      <c r="E12" s="5">
+        <v>9.6199999999999994E-6</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1.0869999999999999E-5</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1.9599999999999999E-6</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1.35E-6</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1.0530000000000001E-5</v>
+      </c>
+      <c r="J12" s="5">
+        <v>6.0599999999999996E-6</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1.1331474500000001</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1.07120313</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.87307891999999998</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.83139295000000002</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.78245878999999996</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1.01516311</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0.42427493999999999</v>
+      </c>
+      <c r="R12" s="2">
+        <v>1.0231013799999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5">
+        <v>6.2299999999999996E-6</v>
+      </c>
+      <c r="D13" s="5">
+        <v>4.0899999999999998E-6</v>
+      </c>
+      <c r="E13" s="5">
+        <v>9.2499999999999995E-6</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1.046E-5</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2.08E-6</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1.31E-6</v>
+      </c>
+      <c r="I13" s="5">
+        <v>4.7999999999999998E-6</v>
+      </c>
+      <c r="J13" s="5">
+        <v>4.0199999999999996E-6</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1.31025787</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.93845076999999999</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.83950749000000002</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.79962637000000003</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0.82982990999999995</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.97921316000000003</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0.19356831999999999</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0.67872273999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3.4999999999999999E-6</v>
+      </c>
+      <c r="D14" s="5">
+        <v>4.1999999999999996E-6</v>
+      </c>
+      <c r="E14" s="5">
+        <v>9.5599999999999999E-6</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1.181E-5</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1.6899999999999999E-6</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1.6700000000000001E-6</v>
+      </c>
+      <c r="I14" s="5">
+        <v>7.2799999999999998E-6</v>
+      </c>
+      <c r="J14" s="5">
+        <v>6.2199999999999997E-6</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5">
+        <v>4.2300000000000002E-6</v>
+      </c>
+      <c r="D15" s="5">
+        <v>4.9200000000000003E-6</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1.183E-5</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1.3159999999999999E-5</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1.68E-6</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="I15" s="5">
+        <v>8.14E-6</v>
+      </c>
+      <c r="J15" s="5">
+        <v>6.5599999999999999E-6</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1.2076191199999999</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1.17077404</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1.23723955</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1.1144536599999999</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0.99420788000000004</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.95739403999999995</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1.11781492</v>
+      </c>
+      <c r="R15" s="2">
+        <v>1.0550609500000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5">
+        <v>4.6500000000000004E-6</v>
+      </c>
+      <c r="D16" s="5">
+        <v>4.9100000000000004E-6</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1.2269999999999999E-5</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1.252E-5</v>
+      </c>
+      <c r="G16" s="5">
+        <v>2.0600000000000002E-6</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1.86E-6</v>
+      </c>
+      <c r="I16" s="5">
+        <v>7.9400000000000002E-6</v>
+      </c>
+      <c r="J16" s="5">
+        <v>7.2599999999999999E-6</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1.3293056000000001</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1.16956737</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1.2837283500000001</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1.0602076600000001</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1.21873757</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1.1142491800000001</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1.0895338800000001</v>
+      </c>
+      <c r="R16" s="2">
+        <v>1.1672220799999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>11</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <v>4.5000000000000001E-6</v>
+      </c>
+      <c r="D17" s="5">
+        <v>5.0599999999999998E-6</v>
+      </c>
+      <c r="E17" s="5">
+        <v>7.8099999999999998E-6</v>
+      </c>
+      <c r="F17" s="5">
+        <v>9.5400000000000001E-6</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1.4899999999999999E-6</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1.5099999999999999E-6</v>
+      </c>
+      <c r="I17" s="5">
+        <v>4.0999999999999997E-6</v>
+      </c>
+      <c r="J17" s="5">
+        <v>3.8399999999999997E-6</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1</v>
+      </c>
+      <c r="O17" s="2">
+        <v>1</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>11</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5">
+        <v>5.0200000000000002E-6</v>
+      </c>
+      <c r="D18" s="5">
+        <v>5.57E-6</v>
+      </c>
+      <c r="E18" s="5">
+        <v>7.79E-6</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1.0349999999999999E-5</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1.6199999999999999E-6</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1.5799999999999999E-6</v>
+      </c>
+      <c r="I18" s="5">
+        <v>3.9600000000000002E-6</v>
+      </c>
+      <c r="J18" s="5">
+        <v>3.4599999999999999E-6</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1.1155243699999999</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1.1001695</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.99707431999999996</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1.08530902</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1.08736616</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1.0400610400000001</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0.96569373000000003</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0.90229788</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>11</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5">
+        <v>4.6999999999999999E-6</v>
+      </c>
+      <c r="D19" s="5">
+        <v>5.48E-6</v>
+      </c>
+      <c r="E19" s="5">
+        <v>8.1100000000000003E-6</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1.146E-5</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1.61E-6</v>
+      </c>
+      <c r="I19" s="5">
+        <v>5.0499999999999999E-6</v>
+      </c>
+      <c r="J19" s="5">
+        <v>4.1300000000000003E-6</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1.04617811</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1.0823246099999999</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1.0391275499999999</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1.2012198999999999</v>
+      </c>
+      <c r="O19" s="2">
+        <v>1.06900215</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1.05968756</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>1.2323602199999999</v>
+      </c>
+      <c r="R19" s="2">
+        <v>1.0771265800000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5">
+        <v>7.2200000000000003E-6</v>
+      </c>
+      <c r="D20" s="5">
+        <v>9.9499999999999996E-6</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1.046E-5</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1.613E-5</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1.39E-6</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1.4699999999999999E-6</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1.322E-5</v>
+      </c>
+      <c r="J20" s="5">
+        <v>2.3300000000000001E-6</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5">
+        <v>8.1300000000000001E-6</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1.065E-5</v>
+      </c>
+      <c r="E21" s="5">
+        <v>8.8699999999999998E-6</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1.491E-5</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1.37E-6</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1.4899999999999999E-6</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1.0699999999999999E-5</v>
+      </c>
+      <c r="J21" s="5">
+        <v>4.1799999999999998E-6</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1.12686938</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1.07005415</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.84788785</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.92438690999999995</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0.98674050000000002</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1.0115620599999999</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0.80905819000000001</v>
+      </c>
+      <c r="R21" s="2">
+        <v>1.79866817</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2">
+        <v>4</v>
+      </c>
+      <c r="C22" s="5">
+        <v>7.6199999999999999E-6</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1.1960000000000001E-5</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1.2289999999999999E-5</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1.7050000000000001E-5</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1.7600000000000001E-6</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1.9700000000000002E-6</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1.0730000000000001E-5</v>
+      </c>
+      <c r="J22" s="5">
+        <v>8.6000000000000007E-6</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1.05598188</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1.20234095</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1.17441591</v>
+      </c>
+      <c r="N22" s="2">
+        <v>1.0575355</v>
+      </c>
+      <c r="O22" s="2">
+        <v>1.26925592</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1.33848593</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0.81166236999999997</v>
+      </c>
+      <c r="R22" s="2">
+        <v>3.6967981000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>13</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5">
+        <v>3.2100000000000002E-6</v>
+      </c>
+      <c r="D23" s="5">
+        <v>3.1499999999999999E-6</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1.562E-5</v>
+      </c>
+      <c r="F23" s="5">
+        <v>3.1690000000000003E-5</v>
+      </c>
+      <c r="G23" s="5">
+        <v>2.1900000000000002E-6</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1.9800000000000001E-6</v>
+      </c>
+      <c r="I23" s="5">
+        <v>5.3800000000000002E-6</v>
+      </c>
+      <c r="J23" s="5">
+        <v>6.4899999999999997E-6</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1</v>
+      </c>
+      <c r="O23" s="2">
+        <v>1</v>
+      </c>
+      <c r="P23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>1</v>
+      </c>
+      <c r="R23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>13</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="5">
+        <v>5.0499999999999999E-6</v>
+      </c>
+      <c r="D24" s="5">
+        <v>6.0100000000000001E-6</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1.361E-5</v>
+      </c>
+      <c r="F24" s="5">
+        <v>2.974E-5</v>
+      </c>
+      <c r="G24" s="5">
+        <v>2.6900000000000001E-6</v>
+      </c>
+      <c r="H24" s="5">
+        <v>3.27E-6</v>
+      </c>
+      <c r="I24" s="5">
+        <v>7.1400000000000002E-6</v>
+      </c>
+      <c r="J24" s="5">
+        <v>7.3599999999999998E-6</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1.57204403</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1.90659329</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.87130384999999999</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.93839172000000004</v>
+      </c>
+      <c r="O24" s="2">
+        <v>1.22874371</v>
+      </c>
+      <c r="P24" s="2">
+        <v>1.6522671900000001</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>1.32789672</v>
+      </c>
+      <c r="R24" s="2">
+        <v>1.13340413</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>13</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4</v>
+      </c>
+      <c r="C25" s="5">
+        <v>3.7900000000000001E-6</v>
+      </c>
+      <c r="D25" s="5">
+        <v>4.4499999999999997E-6</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1.8240000000000002E-5</v>
+      </c>
+      <c r="F25" s="5">
+        <v>3.3779999999999998E-5</v>
+      </c>
+      <c r="G25" s="5">
+        <v>2.6000000000000001E-6</v>
+      </c>
+      <c r="H25" s="5">
+        <v>2.4899999999999999E-6</v>
+      </c>
+      <c r="I25" s="5">
+        <v>8.7199999999999995E-6</v>
+      </c>
+      <c r="J25" s="5">
+        <v>9.7599999999999997E-6</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1.18184705</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1.41278013</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1.1678265800000001</v>
+      </c>
+      <c r="N25" s="2">
+        <v>1.0658917400000001</v>
+      </c>
+      <c r="O25" s="2">
+        <v>1.1852681599999999</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1.25942555</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>1.6216784799999999</v>
+      </c>
+      <c r="R25" s="2">
+        <v>1.50305957</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>14</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5">
+        <v>4.8400000000000002E-6</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2.1080000000000001E-5</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1.9729999999999999E-5</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1.558E-5</v>
+      </c>
+      <c r="G26" s="5">
+        <v>2.08E-6</v>
+      </c>
+      <c r="H26" s="5">
+        <v>4.2400000000000001E-6</v>
+      </c>
+      <c r="I26" s="5">
+        <v>7.5299999999999999E-6</v>
+      </c>
+      <c r="J26" s="5">
+        <v>7.6000000000000001E-6</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1</v>
+      </c>
+      <c r="N26" s="2">
+        <v>1</v>
+      </c>
+      <c r="O26" s="2">
+        <v>1</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>1</v>
+      </c>
+      <c r="R26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>14</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2</v>
+      </c>
+      <c r="C27" s="5">
+        <v>4.6099999999999999E-6</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2.0129999999999999E-5</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1.3169999999999999E-5</v>
+      </c>
+      <c r="F27" s="5">
+        <v>6.6499999999999999E-6</v>
+      </c>
+      <c r="G27" s="5">
+        <v>2.48E-6</v>
+      </c>
+      <c r="H27" s="5">
+        <v>2.2299999999999998E-6</v>
+      </c>
+      <c r="I27" s="5">
+        <v>3.7889999999999998E-5</v>
+      </c>
+      <c r="J27" s="5">
+        <v>6.9399999999999996E-6</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.95102757000000004</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.95460252999999995</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0.66764871999999997</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0.42678528999999998</v>
+      </c>
+      <c r="O27" s="2">
+        <v>1.19529017</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0.52451157999999998</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>5.0288713100000004</v>
+      </c>
+      <c r="R27" s="2">
+        <v>0.91340657999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>14</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4</v>
+      </c>
+      <c r="C28" s="5">
+        <v>4.5499999999999996E-6</v>
+      </c>
+      <c r="D28" s="5">
+        <v>2.1990000000000001E-5</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1.383E-5</v>
+      </c>
+      <c r="F28" s="5">
+        <v>7.61E-6</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1.9199999999999998E-6</v>
+      </c>
+      <c r="H28" s="5">
+        <v>2.7099999999999999E-6</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1.7751E-4</v>
+      </c>
+      <c r="J28" s="5">
+        <v>7.2899999999999997E-6</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0.93929731999999999</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1.0430596299999999</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0.70120709999999997</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0.48832430999999998</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0.92648258999999999</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0.63847191999999997</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>23.562113499999999</v>
+      </c>
+      <c r="R28" s="2">
+        <v>0.95989477999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>16</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5">
+        <v>6.5200000000000003E-6</v>
+      </c>
+      <c r="D29" s="5">
+        <v>6.4200000000000004E-6</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1.5099999999999999E-5</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1.136E-5</v>
+      </c>
+      <c r="G29" s="5">
+        <v>6.9999999999999997E-7</v>
+      </c>
+      <c r="H29" s="5">
+        <v>9.9000000000000005E-7</v>
+      </c>
+      <c r="I29" s="5">
+        <v>6.5799999999999997E-6</v>
+      </c>
+      <c r="J29" s="5">
+        <v>6.5799999999999997E-6</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1</v>
+      </c>
+      <c r="N29" s="2">
+        <v>1</v>
+      </c>
+      <c r="O29" s="2">
+        <v>1</v>
+      </c>
+      <c r="P29" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>1</v>
+      </c>
+      <c r="R29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>16</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2</v>
+      </c>
+      <c r="C30" s="5">
+        <v>6.3999999999999997E-6</v>
+      </c>
+      <c r="D30" s="5">
+        <v>5.0799999999999996E-6</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1.401E-5</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1.2119999999999999E-5</v>
+      </c>
+      <c r="G30" s="5">
+        <v>1.17E-6</v>
+      </c>
+      <c r="H30" s="5">
+        <v>1.3400000000000001E-6</v>
+      </c>
+      <c r="I30" s="5">
+        <v>1.059E-5</v>
+      </c>
+      <c r="J30" s="5">
+        <v>1.1219999999999999E-5</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0.98112675000000005</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.79127261999999998</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0.92768702000000003</v>
+      </c>
+      <c r="N30" s="2">
+        <v>1.06667435</v>
+      </c>
+      <c r="O30" s="2">
+        <v>1.66256669</v>
+      </c>
+      <c r="P30" s="2">
+        <v>1.3529441900000001</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>1.6096862599999999</v>
+      </c>
+      <c r="R30" s="2">
+        <v>1.70342153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>16</v>
+      </c>
+      <c r="B31" s="2">
+        <v>4</v>
+      </c>
+      <c r="C31" s="5">
+        <v>7.0700000000000001E-6</v>
+      </c>
+      <c r="D31" s="5">
+        <v>5.6099999999999997E-6</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1.521E-5</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1.253E-5</v>
+      </c>
+      <c r="G31" s="5">
+        <v>8.4E-7</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1.11E-6</v>
+      </c>
+      <c r="I31" s="5">
+        <v>1.099E-5</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1.137E-5</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1.0843038599999999</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0.87495447999999998</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1.00766599</v>
+      </c>
+      <c r="N31" s="2">
+        <v>1.1026431000000001</v>
+      </c>
+      <c r="O31" s="2">
+        <v>1.2000008200000001</v>
+      </c>
+      <c r="P31" s="2">
+        <v>1.1154580999999999</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>1.67048424</v>
+      </c>
+      <c r="R31" s="2">
+        <v>1.7260363400000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>17</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="5">
+        <v>7.1899999999999998E-6</v>
+      </c>
+      <c r="D32" s="5">
+        <v>6.7800000000000003E-6</v>
+      </c>
+      <c r="E32" s="5">
+        <v>3.2499999999999998E-6</v>
+      </c>
+      <c r="F32" s="5">
+        <v>7.6199999999999999E-6</v>
+      </c>
+      <c r="G32" s="5">
+        <v>1.0100000000000001E-6</v>
+      </c>
+      <c r="H32" s="5">
+        <v>1.0300000000000001E-6</v>
+      </c>
+      <c r="I32" s="5">
+        <v>2.39E-6</v>
+      </c>
+      <c r="J32" s="5">
+        <v>2.3E-6</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1</v>
+      </c>
+      <c r="N32" s="2">
+        <v>1</v>
+      </c>
+      <c r="O32" s="2">
+        <v>1</v>
+      </c>
+      <c r="P32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>1</v>
+      </c>
+      <c r="R32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>17</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1.163E-5</v>
+      </c>
+      <c r="D33" s="5">
+        <v>6.64E-6</v>
+      </c>
+      <c r="E33" s="5">
+        <v>3.41E-6</v>
+      </c>
+      <c r="F33" s="5">
+        <v>5.9599999999999997E-6</v>
+      </c>
+      <c r="G33" s="5">
+        <v>9.5000000000000001E-7</v>
+      </c>
+      <c r="H33" s="5">
+        <v>8.8999999999999995E-7</v>
+      </c>
+      <c r="I33" s="5">
+        <v>4.4499999999999997E-6</v>
+      </c>
+      <c r="J33" s="5">
+        <v>6.7700000000000004E-6</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1.61813384</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0.97905929999999997</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1.04839802</v>
+      </c>
+      <c r="N33" s="2">
+        <v>0.78178433000000003</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0.94523115000000002</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0.85962992000000005</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>1.8604281</v>
+      </c>
+      <c r="R33" s="2">
+        <v>2.9462682600000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>17</v>
+      </c>
+      <c r="B34" s="2">
+        <v>4</v>
+      </c>
+      <c r="C34" s="5">
+        <v>9.5300000000000002E-6</v>
+      </c>
+      <c r="D34" s="5">
+        <v>4.9699999999999998E-6</v>
+      </c>
+      <c r="E34" s="5">
+        <v>5.1599999999999997E-6</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1.0200000000000001E-5</v>
+      </c>
+      <c r="G34" s="5">
+        <v>1.5200000000000001E-6</v>
+      </c>
+      <c r="H34" s="5">
+        <v>1.55E-6</v>
+      </c>
+      <c r="I34" s="5">
+        <v>1.9E-6</v>
+      </c>
+      <c r="J34" s="5">
+        <v>3.1700000000000001E-6</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1.32594568</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0.73261350000000003</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1.58722071</v>
+      </c>
+      <c r="N34" s="2">
+        <v>1.3390339099999999</v>
+      </c>
+      <c r="O34" s="2">
+        <v>1.5118874200000001</v>
+      </c>
+      <c r="P34" s="2">
+        <v>1.50236579</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0.79562854000000005</v>
+      </c>
+      <c r="R34" s="2">
+        <v>1.3793078299999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>18</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="5">
+        <v>2.6699999999999998E-6</v>
+      </c>
+      <c r="D35" s="5">
+        <v>3.7900000000000001E-6</v>
+      </c>
+      <c r="E35" s="5">
+        <v>5.2800000000000003E-6</v>
+      </c>
+      <c r="F35" s="5">
+        <v>9.4599999999999992E-6</v>
+      </c>
+      <c r="G35" s="5">
+        <v>1.0100000000000001E-6</v>
+      </c>
+      <c r="H35" s="5">
+        <v>1.4300000000000001E-6</v>
+      </c>
+      <c r="I35" s="5">
+        <v>5.6099999999999997E-6</v>
+      </c>
+      <c r="J35" s="5">
+        <v>7.5800000000000003E-6</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1</v>
+      </c>
+      <c r="M35" s="2">
+        <v>1</v>
+      </c>
+      <c r="N35" s="2">
+        <v>1</v>
+      </c>
+      <c r="O35" s="2">
+        <v>1</v>
+      </c>
+      <c r="P35" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>1</v>
+      </c>
+      <c r="R35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>18</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2</v>
+      </c>
+      <c r="C36" s="5">
+        <v>3.6799999999999999E-6</v>
+      </c>
+      <c r="D36" s="5">
+        <v>4.1699999999999999E-6</v>
+      </c>
+      <c r="E36" s="5">
+        <v>7.7300000000000005E-6</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1.0519999999999999E-5</v>
+      </c>
+      <c r="G36" s="5">
+        <v>1.4699999999999999E-6</v>
+      </c>
+      <c r="H36" s="5">
+        <v>1.8300000000000001E-6</v>
+      </c>
+      <c r="I36" s="5">
+        <v>5.9540000000000003E-5</v>
+      </c>
+      <c r="J36" s="5">
+        <v>5.855E-5</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1.37880917</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1.10116587</v>
+      </c>
+      <c r="M36" s="2">
+        <v>1.46560789</v>
+      </c>
+      <c r="N36" s="2">
+        <v>1.1126717800000001</v>
+      </c>
+      <c r="O36" s="2">
+        <v>1.4566112</v>
+      </c>
+      <c r="P36" s="2">
+        <v>1.2795044</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>10.615650799999999</v>
+      </c>
+      <c r="R36" s="2">
+        <v>7.7294572700000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>18</v>
+      </c>
+      <c r="B37" s="2">
+        <v>4</v>
+      </c>
+      <c r="C37" s="5">
+        <v>4.2599999999999999E-6</v>
+      </c>
+      <c r="D37" s="5">
+        <v>5.1699999999999996E-6</v>
+      </c>
+      <c r="E37" s="5">
+        <v>7.4200000000000001E-6</v>
+      </c>
+      <c r="F37" s="5">
+        <v>6.8399999999999997E-6</v>
+      </c>
+      <c r="G37" s="5">
+        <v>1.7999999999999999E-6</v>
+      </c>
+      <c r="H37" s="5">
+        <v>1.4899999999999999E-6</v>
+      </c>
+      <c r="I37" s="5">
+        <v>6.55E-6</v>
+      </c>
+      <c r="J37" s="5">
+        <v>1.0710000000000001E-5</v>
+      </c>
+      <c r="K37" s="2">
+        <v>1.5954355899999999</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1.3657105599999999</v>
+      </c>
+      <c r="M37" s="2">
+        <v>1.40617521</v>
+      </c>
+      <c r="N37" s="2">
+        <v>0.72335850000000002</v>
+      </c>
+      <c r="O37" s="2">
+        <v>1.7853858499999999</v>
+      </c>
+      <c r="P37" s="2">
+        <v>1.04320675</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>1.16825618</v>
+      </c>
+      <c r="R37" s="2">
+        <v>1.4139113400000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>19</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="5">
+        <v>3.19E-6</v>
+      </c>
+      <c r="D38" s="5">
+        <v>3.49E-6</v>
+      </c>
+      <c r="E38" s="5">
+        <v>3.6100000000000002E-6</v>
+      </c>
+      <c r="F38" s="5">
+        <v>2.7700000000000002E-6</v>
+      </c>
+      <c r="G38" s="5">
+        <v>1.2699999999999999E-6</v>
+      </c>
+      <c r="H38" s="5">
+        <v>1.4899999999999999E-6</v>
+      </c>
+      <c r="I38" s="5">
+        <v>6.6200000000000001E-6</v>
+      </c>
+      <c r="J38" s="5">
+        <v>7.3599999999999998E-6</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1</v>
+      </c>
+      <c r="L38" s="2">
+        <v>1</v>
+      </c>
+      <c r="M38" s="2">
+        <v>1</v>
+      </c>
+      <c r="N38" s="2">
+        <v>1</v>
+      </c>
+      <c r="O38" s="2">
+        <v>1</v>
+      </c>
+      <c r="P38" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>1</v>
+      </c>
+      <c r="R38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>19</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2</v>
+      </c>
+      <c r="C39" s="5">
+        <v>3.8299999999999998E-6</v>
+      </c>
+      <c r="D39" s="5">
+        <v>4.25E-6</v>
+      </c>
+      <c r="E39" s="5">
+        <v>3.8099999999999999E-6</v>
+      </c>
+      <c r="F39" s="5">
+        <v>5.6500000000000001E-6</v>
+      </c>
+      <c r="G39" s="5">
+        <v>1.6199999999999999E-6</v>
+      </c>
+      <c r="H39" s="5">
+        <v>1.8199999999999999E-6</v>
+      </c>
+      <c r="I39" s="5">
+        <v>8.2300000000000008E-6</v>
+      </c>
+      <c r="J39" s="5">
+        <v>1.5529999999999999E-5</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1.20048259</v>
+      </c>
+      <c r="L39" s="2">
+        <v>1.21839992</v>
+      </c>
+      <c r="M39" s="2">
+        <v>1.0564186200000001</v>
+      </c>
+      <c r="N39" s="2">
+        <v>2.04374565</v>
+      </c>
+      <c r="O39" s="2">
+        <v>1.2772196</v>
+      </c>
+      <c r="P39" s="2">
+        <v>1.2205474700000001</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>1.24298643</v>
+      </c>
+      <c r="R39" s="2">
+        <v>2.1100240100000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>19</v>
+      </c>
+      <c r="B40" s="2">
+        <v>4</v>
+      </c>
+      <c r="C40" s="5">
+        <v>3.2399999999999999E-6</v>
+      </c>
+      <c r="D40" s="5">
+        <v>3.58E-6</v>
+      </c>
+      <c r="E40" s="5">
+        <v>3.1300000000000001E-6</v>
+      </c>
+      <c r="F40" s="5">
+        <v>3.8399999999999997E-6</v>
+      </c>
+      <c r="G40" s="5">
+        <v>1.86E-6</v>
+      </c>
+      <c r="H40" s="5">
+        <v>1.7E-6</v>
+      </c>
+      <c r="I40" s="5">
+        <v>7.6399999999999997E-6</v>
+      </c>
+      <c r="J40" s="5">
+        <v>7.3000000000000004E-6</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1.01563067</v>
+      </c>
+      <c r="L40" s="2">
+        <v>1.02672334</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0.86852894000000003</v>
+      </c>
+      <c r="N40" s="2">
+        <v>1.38871652</v>
+      </c>
+      <c r="O40" s="2">
+        <v>1.46214176</v>
+      </c>
+      <c r="P40" s="2">
+        <v>1.1425111100000001</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>1.1527521599999999</v>
+      </c>
+      <c r="R40" s="2">
+        <v>0.99211718000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>20</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="5">
+        <v>3.8199999999999998E-6</v>
+      </c>
+      <c r="D41" s="5">
+        <v>4.4900000000000002E-6</v>
+      </c>
+      <c r="E41" s="5">
+        <v>3.6500000000000002E-6</v>
+      </c>
+      <c r="F41" s="5">
+        <v>4.5000000000000001E-6</v>
+      </c>
+      <c r="G41" s="5">
+        <v>2.21E-6</v>
+      </c>
+      <c r="H41" s="5">
+        <v>1.7E-6</v>
+      </c>
+      <c r="I41" s="5">
+        <v>4.07E-6</v>
+      </c>
+      <c r="J41" s="5">
+        <v>2.2299999999999998E-6</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1</v>
+      </c>
+      <c r="L41" s="2">
+        <v>1</v>
+      </c>
+      <c r="M41" s="2">
+        <v>1</v>
+      </c>
+      <c r="N41" s="2">
+        <v>1</v>
+      </c>
+      <c r="O41" s="2">
+        <v>1</v>
+      </c>
+      <c r="P41" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>1</v>
+      </c>
+      <c r="R41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>20</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2</v>
+      </c>
+      <c r="C42" s="5">
+        <v>4.1699999999999999E-6</v>
+      </c>
+      <c r="D42" s="5">
+        <v>6.0399999999999998E-6</v>
+      </c>
+      <c r="E42" s="5">
+        <v>5.31E-6</v>
+      </c>
+      <c r="F42" s="5">
+        <v>5.4299999999999997E-6</v>
+      </c>
+      <c r="G42" s="5">
+        <v>1.86E-6</v>
+      </c>
+      <c r="H42" s="5">
+        <v>1.4899999999999999E-6</v>
+      </c>
+      <c r="I42" s="5">
+        <v>4.07E-6</v>
+      </c>
+      <c r="J42" s="5">
+        <v>4.07E-6</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1.09002457</v>
+      </c>
+      <c r="L42" s="2">
+        <v>1.3453667300000001</v>
+      </c>
+      <c r="M42" s="2">
+        <v>1.45303822</v>
+      </c>
+      <c r="N42" s="2">
+        <v>1.2057322100000001</v>
+      </c>
+      <c r="O42" s="2">
+        <v>0.84017878999999995</v>
+      </c>
+      <c r="P42" s="2">
+        <v>0.87574198000000003</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>1.00042184</v>
+      </c>
+      <c r="R42" s="2">
+        <v>1.8228839100000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>20</v>
+      </c>
+      <c r="B43" s="2">
+        <v>4</v>
+      </c>
+      <c r="C43" s="5">
+        <v>4.0400000000000003E-6</v>
+      </c>
+      <c r="D43" s="5">
+        <v>4.9799999999999998E-6</v>
+      </c>
+      <c r="E43" s="5">
+        <v>5.9200000000000001E-6</v>
+      </c>
+      <c r="F43" s="5">
+        <v>5.5300000000000004E-6</v>
+      </c>
+      <c r="G43" s="5">
+        <v>2.4099999999999998E-6</v>
+      </c>
+      <c r="H43" s="5">
+        <v>2.0099999999999998E-6</v>
+      </c>
+      <c r="I43" s="5">
+        <v>3.8E-6</v>
+      </c>
+      <c r="J43" s="5">
+        <v>4.3200000000000001E-6</v>
+      </c>
+      <c r="K43" s="2">
+        <v>1.05695133</v>
+      </c>
+      <c r="L43" s="2">
+        <v>1.1091334500000001</v>
+      </c>
+      <c r="M43" s="2">
+        <v>1.6203339999999999</v>
+      </c>
+      <c r="N43" s="2">
+        <v>1.22770139</v>
+      </c>
+      <c r="O43" s="2">
+        <v>1.09239541</v>
+      </c>
+      <c r="P43" s="2">
+        <v>1.18565969</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>0.93462935999999996</v>
+      </c>
+      <c r="R43" s="2">
+        <v>1.9340961299999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>21</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44" s="5">
+        <v>3.0800000000000002E-6</v>
+      </c>
+      <c r="D44" s="5">
+        <v>4.6700000000000002E-6</v>
+      </c>
+      <c r="E44" s="5">
+        <v>6.8600000000000004E-6</v>
+      </c>
+      <c r="F44" s="5">
+        <v>9.8400000000000007E-6</v>
+      </c>
+      <c r="G44" s="5">
+        <v>8.7000000000000003E-7</v>
+      </c>
+      <c r="H44" s="5">
+        <v>7.0999999999999998E-7</v>
+      </c>
+      <c r="I44" s="5">
+        <v>5.9499999999999998E-6</v>
+      </c>
+      <c r="J44" s="5">
+        <v>6.0299999999999999E-6</v>
+      </c>
+      <c r="K44" s="2">
+        <v>1</v>
+      </c>
+      <c r="L44" s="2">
+        <v>1</v>
+      </c>
+      <c r="M44" s="2">
+        <v>1</v>
+      </c>
+      <c r="N44" s="2">
+        <v>1</v>
+      </c>
+      <c r="O44" s="2">
+        <v>1</v>
+      </c>
+      <c r="P44" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>1</v>
+      </c>
+      <c r="R44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>21</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2</v>
+      </c>
+      <c r="C45" s="5">
+        <v>4.3599999999999998E-6</v>
+      </c>
+      <c r="D45" s="5">
+        <v>6.0700000000000003E-6</v>
+      </c>
+      <c r="E45" s="5">
+        <v>9.6500000000000008E-6</v>
+      </c>
+      <c r="F45" s="5">
+        <v>9.8200000000000008E-6</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1.1400000000000001E-6</v>
+      </c>
+      <c r="H45" s="5">
+        <v>1.1000000000000001E-6</v>
+      </c>
+      <c r="I45" s="5">
+        <v>7.0700000000000001E-6</v>
+      </c>
+      <c r="J45" s="5">
+        <v>5.0200000000000002E-6</v>
+      </c>
+      <c r="K45" s="2">
+        <v>1.41782282</v>
+      </c>
+      <c r="L45" s="2">
+        <v>1.2994009500000001</v>
+      </c>
+      <c r="M45" s="2">
+        <v>1.40720746</v>
+      </c>
+      <c r="N45" s="2">
+        <v>0.99781730000000002</v>
+      </c>
+      <c r="O45" s="2">
+        <v>1.3123427299999999</v>
+      </c>
+      <c r="P45" s="2">
+        <v>1.53248863</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>1.18727271</v>
+      </c>
+      <c r="R45" s="2">
+        <v>0.83324525999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>21</v>
+      </c>
+      <c r="B46" s="2">
+        <v>4</v>
+      </c>
+      <c r="C46" s="5">
+        <v>3.3299999999999999E-6</v>
+      </c>
+      <c r="D46" s="5">
+        <v>7.1899999999999998E-6</v>
+      </c>
+      <c r="E46" s="5">
+        <v>1.0180000000000001E-5</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1.0030000000000001E-5</v>
+      </c>
+      <c r="G46" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H46" s="5">
+        <v>7.1999999999999999E-7</v>
+      </c>
+      <c r="I46" s="5">
+        <v>5.4999999999999999E-6</v>
+      </c>
+      <c r="J46" s="5">
+        <v>6.8000000000000001E-6</v>
+      </c>
+      <c r="K46" s="2">
+        <v>1.0808758199999999</v>
+      </c>
+      <c r="L46" s="2">
+        <v>1.5405401700000001</v>
+      </c>
+      <c r="M46" s="2">
+        <v>1.4853462500000001</v>
+      </c>
+      <c r="N46" s="2">
+        <v>1.0190737400000001</v>
+      </c>
+      <c r="O46" s="2">
+        <v>1.1530849400000001</v>
+      </c>
+      <c r="P46" s="2">
+        <v>1.00903966</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>0.92493667999999996</v>
+      </c>
+      <c r="R46" s="2">
+        <v>1.12894845</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>22</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="5">
+        <v>5.8699999999999997E-6</v>
+      </c>
+      <c r="D47" s="5">
+        <v>7.4699999999999996E-6</v>
+      </c>
+      <c r="E47" s="5">
+        <v>3.4669999999999998E-5</v>
+      </c>
+      <c r="F47" s="5">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="G47" s="5">
+        <v>2.2699999999999999E-6</v>
+      </c>
+      <c r="H47" s="5">
+        <v>2.52E-6</v>
+      </c>
+      <c r="I47" s="5">
+        <v>3.2100000000000002E-6</v>
+      </c>
+      <c r="J47" s="5">
+        <v>4.9599999999999999E-6</v>
+      </c>
+      <c r="K47" s="2">
+        <v>1</v>
+      </c>
+      <c r="L47" s="2">
+        <v>1</v>
+      </c>
+      <c r="M47" s="2">
+        <v>1</v>
+      </c>
+      <c r="N47" s="2">
+        <v>1</v>
+      </c>
+      <c r="O47" s="2">
+        <v>1</v>
+      </c>
+      <c r="P47" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>1</v>
+      </c>
+      <c r="R47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>22</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2</v>
+      </c>
+      <c r="C48" s="5">
+        <v>6.6499999999999999E-6</v>
+      </c>
+      <c r="D48" s="5">
+        <v>8.3999999999999992E-6</v>
+      </c>
+      <c r="E48" s="5">
+        <v>2.9519999999999999E-5</v>
+      </c>
+      <c r="F48" s="5">
+        <v>6.2400000000000004E-6</v>
+      </c>
+      <c r="G48" s="5">
+        <v>3.1700000000000001E-6</v>
+      </c>
+      <c r="H48" s="5">
+        <v>3.7699999999999999E-6</v>
+      </c>
+      <c r="I48" s="5">
+        <v>4.5499999999999996E-6</v>
+      </c>
+      <c r="J48" s="5">
+        <v>5.4099999999999999E-6</v>
+      </c>
+      <c r="K48" s="2">
+        <v>1.1324404400000001</v>
+      </c>
+      <c r="L48" s="2">
+        <v>1.1243472000000001</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0.85143197000000004</v>
+      </c>
+      <c r="N48" s="2">
+        <v>0.89165901000000003</v>
+      </c>
+      <c r="O48" s="2">
+        <v>1.3929534100000001</v>
+      </c>
+      <c r="P48" s="2">
+        <v>1.4961504000000001</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>1.4179655499999999</v>
+      </c>
+      <c r="R48" s="2">
+        <v>1.08962852</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>22</v>
+      </c>
+      <c r="B49" s="2">
+        <v>4</v>
+      </c>
+      <c r="C49" s="5">
+        <v>6.1399999999999997E-6</v>
+      </c>
+      <c r="D49" s="5">
+        <v>8.1200000000000002E-6</v>
+      </c>
+      <c r="E49" s="5">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="F49" s="5">
+        <v>8.0700000000000007E-6</v>
+      </c>
+      <c r="G49" s="5">
+        <v>2.1100000000000001E-6</v>
+      </c>
+      <c r="H49" s="5">
+        <v>2.2699999999999999E-6</v>
+      </c>
+      <c r="I49" s="5">
+        <v>3.6799999999999999E-6</v>
+      </c>
+      <c r="J49" s="5">
+        <v>6.2199999999999997E-6</v>
+      </c>
+      <c r="K49" s="2">
+        <v>1.0449321300000001</v>
+      </c>
+      <c r="L49" s="2">
+        <v>1.0873970399999999</v>
+      </c>
+      <c r="M49" s="2">
+        <v>1.0556526399999999</v>
+      </c>
+      <c r="N49" s="2">
+        <v>1.15414138</v>
+      </c>
+      <c r="O49" s="2">
+        <v>0.92721958000000004</v>
+      </c>
+      <c r="P49" s="2">
+        <v>0.90037990999999995</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>1.1449104000000001</v>
+      </c>
+      <c r="R49" s="2">
+        <v>1.25352062</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>23</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1.5600000000000001E-6</v>
+      </c>
+      <c r="D50" s="5">
+        <v>3.7900000000000001E-6</v>
+      </c>
+      <c r="E50" s="5">
+        <v>8.9400000000000008E-6</v>
+      </c>
+      <c r="F50" s="5">
+        <v>7.0299999999999996E-6</v>
+      </c>
+      <c r="G50" s="5">
+        <v>1.57E-6</v>
+      </c>
+      <c r="H50" s="5">
+        <v>1.61E-6</v>
+      </c>
+      <c r="I50" s="5">
+        <v>9.3500000000000003E-6</v>
+      </c>
+      <c r="J50" s="5">
+        <v>1.168E-5</v>
+      </c>
+      <c r="K50" s="2">
+        <v>1</v>
+      </c>
+      <c r="L50" s="2">
+        <v>1</v>
+      </c>
+      <c r="M50" s="2">
+        <v>1</v>
+      </c>
+      <c r="N50" s="2">
+        <v>1</v>
+      </c>
+      <c r="O50" s="2">
+        <v>1</v>
+      </c>
+      <c r="P50" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>1</v>
+      </c>
+      <c r="R50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>23</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2</v>
+      </c>
+      <c r="C51" s="5">
+        <v>3.0900000000000001E-6</v>
+      </c>
+      <c r="D51" s="5">
+        <v>5.7200000000000003E-6</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1.0329999999999999E-5</v>
+      </c>
+      <c r="F51" s="5">
+        <v>6.5899999999999996E-6</v>
+      </c>
+      <c r="G51" s="5">
+        <v>2.1900000000000002E-6</v>
+      </c>
+      <c r="H51" s="5">
+        <v>1.72E-6</v>
+      </c>
+      <c r="I51" s="5">
+        <v>9.3999999999999998E-6</v>
+      </c>
+      <c r="J51" s="5">
+        <v>1.2469999999999999E-5</v>
+      </c>
+      <c r="K51" s="2">
+        <v>1.9861962900000001</v>
+      </c>
+      <c r="L51" s="2">
+        <v>1.5077920300000001</v>
+      </c>
+      <c r="M51" s="2">
+        <v>1.1552875199999999</v>
+      </c>
+      <c r="N51" s="2">
+        <v>0.93839729999999999</v>
+      </c>
+      <c r="O51" s="2">
+        <v>1.39919127</v>
+      </c>
+      <c r="P51" s="2">
+        <v>1.07027516</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>1.00519976</v>
+      </c>
+      <c r="R51" s="2">
+        <v>1.06793195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>23</v>
+      </c>
+      <c r="B52" s="2">
+        <v>4</v>
+      </c>
+      <c r="C52" s="5">
+        <v>4.4800000000000003E-6</v>
+      </c>
+      <c r="D52" s="5">
+        <v>6.1700000000000002E-6</v>
+      </c>
+      <c r="E52" s="5">
+        <v>5.6799999999999998E-6</v>
+      </c>
+      <c r="F52" s="5">
+        <v>5.5199999999999997E-6</v>
+      </c>
+      <c r="G52" s="5">
+        <v>1.8500000000000001E-6</v>
+      </c>
+      <c r="H52" s="5">
+        <v>1.9199999999999998E-6</v>
+      </c>
+      <c r="I52" s="5">
+        <v>9.4299999999999995E-6</v>
+      </c>
+      <c r="J52" s="5">
+        <v>1.383E-5</v>
+      </c>
+      <c r="K52" s="2">
+        <v>2.8805559700000001</v>
+      </c>
+      <c r="L52" s="2">
+        <v>1.6271036400000001</v>
+      </c>
+      <c r="M52" s="2">
+        <v>0.63534678</v>
+      </c>
+      <c r="N52" s="2">
+        <v>0.78528366999999999</v>
+      </c>
+      <c r="O52" s="2">
+        <v>1.18065117</v>
+      </c>
+      <c r="P52" s="2">
+        <v>1.19059749</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>1.0087491900000001</v>
+      </c>
+      <c r="R52" s="2">
+        <v>1.1843181899999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>25</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" s="5">
+        <v>4.5399999999999997E-6</v>
+      </c>
+      <c r="D53" s="5">
+        <v>3.4800000000000001E-6</v>
+      </c>
+      <c r="E53" s="5">
+        <v>6.3199999999999996E-6</v>
+      </c>
+      <c r="F53" s="5">
+        <v>1.2289999999999999E-5</v>
+      </c>
+      <c r="G53" s="5">
+        <v>1.4899999999999999E-6</v>
+      </c>
+      <c r="H53" s="5">
+        <v>1.59E-6</v>
+      </c>
+      <c r="I53" s="5">
+        <v>4.87E-6</v>
+      </c>
+      <c r="J53" s="5">
+        <v>4.4299999999999999E-6</v>
+      </c>
+      <c r="K53" s="2">
+        <v>1</v>
+      </c>
+      <c r="L53" s="2">
+        <v>1</v>
+      </c>
+      <c r="M53" s="2">
+        <v>1</v>
+      </c>
+      <c r="N53" s="2">
+        <v>1</v>
+      </c>
+      <c r="O53" s="2">
+        <v>1</v>
+      </c>
+      <c r="P53" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>1</v>
+      </c>
+      <c r="R53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>25</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2</v>
+      </c>
+      <c r="C54" s="5">
+        <v>4.78E-6</v>
+      </c>
+      <c r="D54" s="5">
+        <v>1.99E-6</v>
+      </c>
+      <c r="E54" s="5">
+        <v>6.3999999999999997E-6</v>
+      </c>
+      <c r="F54" s="5">
+        <v>9.0299999999999999E-6</v>
+      </c>
+      <c r="G54" s="5">
+        <v>2.0700000000000001E-6</v>
+      </c>
+      <c r="H54" s="5">
+        <v>2.2400000000000002E-6</v>
+      </c>
+      <c r="I54" s="5">
+        <v>6.9700000000000002E-6</v>
+      </c>
+      <c r="J54" s="5">
+        <v>8.7399999999999993E-6</v>
+      </c>
+      <c r="K54" s="2">
+        <v>1.05233892</v>
+      </c>
+      <c r="L54" s="2">
+        <v>0.57062416000000005</v>
+      </c>
+      <c r="M54" s="2">
+        <v>1.0132093799999999</v>
+      </c>
+      <c r="N54" s="2">
+        <v>0.73441528</v>
+      </c>
+      <c r="O54" s="2">
+        <v>1.39102463</v>
+      </c>
+      <c r="P54" s="2">
+        <v>1.41149722</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>1.4302028499999999</v>
+      </c>
+      <c r="R54" s="2">
+        <v>1.9730556800000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>25</v>
+      </c>
+      <c r="B55" s="2">
+        <v>4</v>
+      </c>
+      <c r="C55" s="5">
+        <v>3.01E-6</v>
+      </c>
+      <c r="D55" s="5">
+        <v>1.5799999999999999E-6</v>
+      </c>
+      <c r="E55" s="5">
+        <v>2.7599999999999998E-6</v>
+      </c>
+      <c r="F55" s="5">
+        <v>7.9500000000000001E-6</v>
+      </c>
+      <c r="G55" s="5">
+        <v>1.5799999999999999E-6</v>
+      </c>
+      <c r="H55" s="5">
+        <v>1.4300000000000001E-6</v>
+      </c>
+      <c r="I55" s="5">
+        <v>4.3599999999999998E-6</v>
+      </c>
+      <c r="J55" s="5">
+        <v>4.6600000000000003E-6</v>
+      </c>
+      <c r="K55" s="2">
+        <v>0.66291272000000001</v>
+      </c>
+      <c r="L55" s="2">
+        <v>0.45256228999999998</v>
+      </c>
+      <c r="M55" s="2">
+        <v>0.43669584</v>
+      </c>
+      <c r="N55" s="2">
+        <v>0.64689863999999997</v>
+      </c>
+      <c r="O55" s="2">
+        <v>1.06227939</v>
+      </c>
+      <c r="P55" s="2">
+        <v>0.90223207999999999</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>0.89493875000000001</v>
+      </c>
+      <c r="R55" s="2">
+        <v>1.0515390099999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>26</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
+      <c r="C56" s="5">
+        <v>4.6199999999999998E-6</v>
+      </c>
+      <c r="D56" s="5">
+        <v>1.096E-5</v>
+      </c>
+      <c r="E56" s="5">
+        <v>8.1499999999999999E-6</v>
+      </c>
+      <c r="F56" s="5">
+        <v>1.395E-5</v>
+      </c>
+      <c r="G56" s="5">
+        <v>2.96E-6</v>
+      </c>
+      <c r="H56" s="5">
+        <v>3.0299999999999998E-6</v>
+      </c>
+      <c r="I56" s="5">
+        <v>1.011E-5</v>
+      </c>
+      <c r="J56" s="5">
+        <v>1.0720000000000001E-5</v>
+      </c>
+      <c r="K56" s="2">
+        <v>1</v>
+      </c>
+      <c r="L56" s="2">
+        <v>1</v>
+      </c>
+      <c r="M56" s="2">
+        <v>1</v>
+      </c>
+      <c r="N56" s="2">
+        <v>1</v>
+      </c>
+      <c r="O56" s="2">
+        <v>1</v>
+      </c>
+      <c r="P56" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>1</v>
+      </c>
+      <c r="R56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>26</v>
+      </c>
+      <c r="B57" s="2">
+        <v>2</v>
+      </c>
+      <c r="C57" s="5">
+        <v>4.7099999999999998E-6</v>
+      </c>
+      <c r="D57" s="5">
+        <v>1.0139999999999999E-5</v>
+      </c>
+      <c r="E57" s="5">
+        <v>8.5399999999999996E-6</v>
+      </c>
+      <c r="F57" s="5">
+        <v>1.3519999999999999E-5</v>
+      </c>
+      <c r="G57" s="5">
+        <v>3.45E-6</v>
+      </c>
+      <c r="H57" s="5">
+        <v>2.7599999999999998E-6</v>
+      </c>
+      <c r="I57" s="5">
+        <v>1.2819999999999999E-5</v>
+      </c>
+      <c r="J57" s="5">
+        <v>9.5799999999999998E-6</v>
+      </c>
+      <c r="K57" s="2">
+        <v>1.0206333599999999</v>
+      </c>
+      <c r="L57" s="2">
+        <v>0.92549291</v>
+      </c>
+      <c r="M57" s="2">
+        <v>1.0477805099999999</v>
+      </c>
+      <c r="N57" s="2">
+        <v>0.96970396000000003</v>
+      </c>
+      <c r="O57" s="2">
+        <v>1.1677868</v>
+      </c>
+      <c r="P57" s="2">
+        <v>0.91136391999999999</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>1.2683297</v>
+      </c>
+      <c r="R57" s="2">
+        <v>0.89379953999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>26</v>
+      </c>
+      <c r="B58" s="2">
+        <v>4</v>
+      </c>
+      <c r="C58" s="5">
+        <v>5.8300000000000001E-6</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1.04E-5</v>
+      </c>
+      <c r="E58" s="5">
+        <v>9.6399999999999992E-6</v>
+      </c>
+      <c r="F58" s="5">
+        <v>1.277E-5</v>
+      </c>
+      <c r="G58" s="5">
+        <v>2.7499999999999999E-6</v>
+      </c>
+      <c r="H58" s="5">
+        <v>3.36E-6</v>
+      </c>
+      <c r="I58" s="5">
+        <v>2.1480000000000001E-5</v>
+      </c>
+      <c r="J58" s="5">
+        <v>1.111E-5</v>
+      </c>
+      <c r="K58" s="2">
+        <v>1.2618662</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0.94959313999999995</v>
+      </c>
+      <c r="M58" s="2">
+        <v>1.18225566</v>
+      </c>
+      <c r="N58" s="2">
+        <v>0.9156147</v>
+      </c>
+      <c r="O58" s="2">
+        <v>0.92946198999999996</v>
+      </c>
+      <c r="P58" s="2">
+        <v>1.10773612</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>2.1254070399999998</v>
+      </c>
+      <c r="R58" s="2">
+        <v>1.0363369600000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>27</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1</v>
+      </c>
+      <c r="C59" s="5">
+        <v>5.0799999999999996E-6</v>
+      </c>
+      <c r="D59" s="5">
+        <v>3.6200000000000001E-6</v>
+      </c>
+      <c r="E59" s="5">
+        <v>7.43E-6</v>
+      </c>
+      <c r="F59" s="5">
+        <v>7.5299999999999999E-6</v>
+      </c>
+      <c r="G59" s="5">
+        <v>1.77E-6</v>
+      </c>
+      <c r="H59" s="5">
+        <v>2.0099999999999998E-6</v>
+      </c>
+      <c r="I59" s="5">
+        <v>6.9399999999999996E-6</v>
+      </c>
+      <c r="J59" s="5">
+        <v>8.9900000000000003E-6</v>
+      </c>
+      <c r="K59" s="2">
+        <v>1</v>
+      </c>
+      <c r="L59" s="2">
+        <v>1</v>
+      </c>
+      <c r="M59" s="2">
+        <v>1</v>
+      </c>
+      <c r="N59" s="2">
+        <v>1</v>
+      </c>
+      <c r="O59" s="2">
+        <v>1</v>
+      </c>
+      <c r="P59" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>1</v>
+      </c>
+      <c r="R59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>27</v>
+      </c>
+      <c r="B60" s="2">
+        <v>2</v>
+      </c>
+      <c r="C60" s="5">
+        <v>6.6200000000000001E-6</v>
+      </c>
+      <c r="D60" s="5">
+        <v>4.2799999999999997E-6</v>
+      </c>
+      <c r="E60" s="5">
+        <v>8.0199999999999994E-6</v>
+      </c>
+      <c r="F60" s="5">
+        <v>8.5299999999999996E-6</v>
+      </c>
+      <c r="G60" s="5">
+        <v>2.3800000000000001E-6</v>
+      </c>
+      <c r="H60" s="5">
+        <v>2.4200000000000001E-6</v>
+      </c>
+      <c r="I60" s="5">
+        <v>7.2799999999999998E-6</v>
+      </c>
+      <c r="J60" s="5">
+        <v>1.145E-5</v>
+      </c>
+      <c r="K60" s="2">
+        <v>1.3012463400000001</v>
+      </c>
+      <c r="L60" s="2">
+        <v>1.1823832999999999</v>
+      </c>
+      <c r="M60" s="2">
+        <v>1.07857252</v>
+      </c>
+      <c r="N60" s="2">
+        <v>1.1317288599999999</v>
+      </c>
+      <c r="O60" s="2">
+        <v>1.3405028800000001</v>
+      </c>
+      <c r="P60" s="2">
+        <v>1.20333834</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>1.0487039499999999</v>
+      </c>
+      <c r="R60" s="2">
+        <v>1.27349935</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>27</v>
+      </c>
+      <c r="B61" s="2">
+        <v>4</v>
+      </c>
+      <c r="C61" s="5">
+        <v>5.4600000000000002E-6</v>
+      </c>
+      <c r="D61" s="5">
+        <v>4.07E-6</v>
+      </c>
+      <c r="E61" s="5">
+        <v>6.7100000000000001E-6</v>
+      </c>
+      <c r="F61" s="5">
+        <v>7.6899999999999992E-6</v>
+      </c>
+      <c r="G61" s="5">
+        <v>1.9199999999999998E-6</v>
+      </c>
+      <c r="H61" s="5">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I61" s="5">
+        <v>8.14E-6</v>
+      </c>
+      <c r="J61" s="5">
+        <v>1.252E-5</v>
+      </c>
+      <c r="K61" s="2">
+        <v>1.07322476</v>
+      </c>
+      <c r="L61" s="2">
+        <v>1.1261421300000001</v>
+      </c>
+      <c r="M61" s="2">
+        <v>0.90209561000000005</v>
+      </c>
+      <c r="N61" s="2">
+        <v>1.0205034100000001</v>
+      </c>
+      <c r="O61" s="2">
+        <v>1.08195975</v>
+      </c>
+      <c r="P61" s="2">
+        <v>0.99750634000000005</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>1.1724419100000001</v>
+      </c>
+      <c r="R61" s="2">
+        <v>1.3928819699999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>28</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1</v>
+      </c>
+      <c r="C62" s="5">
+        <v>3.8199999999999998E-6</v>
+      </c>
+      <c r="D62" s="5">
+        <v>3.49E-6</v>
+      </c>
+      <c r="E62" s="5">
+        <v>3.3900000000000002E-6</v>
+      </c>
+      <c r="F62" s="5">
+        <v>3.9299999999999996E-6</v>
+      </c>
+      <c r="G62" s="5">
+        <v>8.7000000000000003E-7</v>
+      </c>
+      <c r="H62" s="5">
+        <v>1.66E-6</v>
+      </c>
+      <c r="I62" s="5">
+        <v>2.83E-6</v>
+      </c>
+      <c r="J62" s="5">
+        <v>7.25E-6</v>
+      </c>
+      <c r="K62" s="2">
+        <v>1</v>
+      </c>
+      <c r="L62" s="2">
+        <v>1</v>
+      </c>
+      <c r="M62" s="2">
+        <v>1</v>
+      </c>
+      <c r="N62" s="2">
+        <v>1</v>
+      </c>
+      <c r="O62" s="2">
+        <v>1</v>
+      </c>
+      <c r="P62" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>1</v>
+      </c>
+      <c r="R62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>28</v>
+      </c>
+      <c r="B63" s="2">
+        <v>2</v>
+      </c>
+      <c r="C63" s="5">
+        <v>3.27E-6</v>
+      </c>
+      <c r="D63" s="5">
+        <v>3.4599999999999999E-6</v>
+      </c>
+      <c r="E63" s="5">
+        <v>9.2900000000000008E-6</v>
+      </c>
+      <c r="F63" s="5">
+        <v>4.5800000000000002E-6</v>
+      </c>
+      <c r="G63" s="5">
+        <v>1.95E-6</v>
+      </c>
+      <c r="H63" s="5">
+        <v>1.02E-6</v>
+      </c>
+      <c r="I63" s="5">
+        <v>8.6999999999999997E-6</v>
+      </c>
+      <c r="J63" s="5">
+        <v>1.149E-5</v>
+      </c>
+      <c r="K63" s="2">
+        <v>0.85593757999999998</v>
+      </c>
+      <c r="L63" s="2">
+        <v>0.99221731000000002</v>
+      </c>
+      <c r="M63" s="2">
+        <v>2.7439263600000001</v>
+      </c>
+      <c r="N63" s="2">
+        <v>1.16371662</v>
+      </c>
+      <c r="O63" s="2">
+        <v>2.2330116699999998</v>
+      </c>
+      <c r="P63" s="2">
+        <v>0.61313213</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>3.0719576800000001</v>
+      </c>
+      <c r="R63" s="2">
+        <v>1.5860672</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>28</v>
+      </c>
+      <c r="B64" s="2">
+        <v>4</v>
+      </c>
+      <c r="C64" s="5">
+        <v>3.6799999999999999E-6</v>
+      </c>
+      <c r="D64" s="5">
+        <v>2.7300000000000001E-6</v>
+      </c>
+      <c r="E64" s="5">
+        <v>7.0099999999999998E-6</v>
+      </c>
+      <c r="F64" s="5">
+        <v>2.1440000000000001E-5</v>
+      </c>
+      <c r="G64" s="5">
+        <v>1.46E-6</v>
+      </c>
+      <c r="H64" s="5">
+        <v>2.1799999999999999E-6</v>
+      </c>
+      <c r="I64" s="5">
+        <v>8.2800000000000003E-6</v>
+      </c>
+      <c r="J64" s="5">
+        <v>1.2330000000000001E-5</v>
+      </c>
+      <c r="K64" s="2">
+        <v>0.96451339999999997</v>
+      </c>
+      <c r="L64" s="2">
+        <v>0.78409989000000002</v>
+      </c>
+      <c r="M64" s="2">
+        <v>2.0715698200000001</v>
+      </c>
+      <c r="N64" s="2">
+        <v>5.4482299599999999</v>
+      </c>
+      <c r="O64" s="2">
+        <v>1.6772538800000001</v>
+      </c>
+      <c r="P64" s="2">
+        <v>1.31266532</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>2.9251132900000001</v>
+      </c>
+      <c r="R64" s="2">
+        <v>1.70170803</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>30</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1</v>
+      </c>
+      <c r="C65" s="5">
+        <v>4.0300000000000004E-6</v>
+      </c>
+      <c r="D65" s="5">
+        <v>5.3800000000000002E-6</v>
+      </c>
+      <c r="E65" s="5">
+        <v>6.55E-6</v>
+      </c>
+      <c r="F65" s="5">
+        <v>6.5400000000000001E-6</v>
+      </c>
+      <c r="G65" s="5">
+        <v>2.7999999999999999E-6</v>
+      </c>
+      <c r="H65" s="5">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="I65" s="5">
+        <v>4.0899999999999998E-6</v>
+      </c>
+      <c r="J65" s="5">
+        <v>5.0499999999999999E-6</v>
+      </c>
+      <c r="K65" s="2">
+        <v>1</v>
+      </c>
+      <c r="L65" s="2">
+        <v>1</v>
+      </c>
+      <c r="M65" s="2">
+        <v>1</v>
+      </c>
+      <c r="N65" s="2">
+        <v>1</v>
+      </c>
+      <c r="O65" s="2">
+        <v>1</v>
+      </c>
+      <c r="P65" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>1</v>
+      </c>
+      <c r="R65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>30</v>
+      </c>
+      <c r="B66" s="2">
+        <v>2</v>
+      </c>
+      <c r="C66" s="5">
+        <v>8.6899999999999998E-6</v>
+      </c>
+      <c r="D66" s="5">
+        <v>6.2500000000000003E-6</v>
+      </c>
+      <c r="E66" s="5">
+        <v>5.4199999999999998E-6</v>
+      </c>
+      <c r="F66" s="5">
+        <v>9.7200000000000001E-6</v>
+      </c>
+      <c r="G66" s="5">
+        <v>2.08E-6</v>
+      </c>
+      <c r="H66" s="5">
+        <v>2.3099999999999999E-6</v>
+      </c>
+      <c r="I66" s="5">
+        <v>3.9700000000000001E-6</v>
+      </c>
+      <c r="J66" s="5">
+        <v>4.2300000000000002E-6</v>
+      </c>
+      <c r="K66" s="2">
+        <v>2.1583194699999999</v>
+      </c>
+      <c r="L66" s="2">
+        <v>1.16209574</v>
+      </c>
+      <c r="M66" s="2">
+        <v>0.82814955000000001</v>
+      </c>
+      <c r="N66" s="2">
+        <v>1.4858361499999999</v>
+      </c>
+      <c r="O66" s="2">
+        <v>0.74253437</v>
+      </c>
+      <c r="P66" s="2">
+        <v>0.76837403000000004</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>0.96928453999999997</v>
+      </c>
+      <c r="R66" s="2">
+        <v>0.83676055000000005</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>30</v>
+      </c>
+      <c r="B67" s="2">
+        <v>4</v>
+      </c>
+      <c r="C67" s="5">
+        <v>7.1899999999999998E-6</v>
+      </c>
+      <c r="D67" s="5">
+        <v>6.9299999999999997E-6</v>
+      </c>
+      <c r="E67" s="5">
+        <v>5.6699999999999999E-6</v>
+      </c>
+      <c r="F67" s="5">
+        <v>8.0499999999999992E-6</v>
+      </c>
+      <c r="G67" s="5">
+        <v>2.5299999999999999E-6</v>
+      </c>
+      <c r="H67" s="5">
+        <v>2.1500000000000002E-6</v>
+      </c>
+      <c r="I67" s="5">
+        <v>3.9099999999999998E-6</v>
+      </c>
+      <c r="J67" s="5">
+        <v>4.7199999999999997E-6</v>
+      </c>
+      <c r="K67" s="2">
+        <v>1.7866614199999999</v>
+      </c>
+      <c r="L67" s="2">
+        <v>1.289134</v>
+      </c>
+      <c r="M67" s="2">
+        <v>0.86579587000000002</v>
+      </c>
+      <c r="N67" s="2">
+        <v>1.2303601099999999</v>
+      </c>
+      <c r="O67" s="2">
+        <v>0.90140622000000004</v>
+      </c>
+      <c r="P67" s="2">
+        <v>0.71606906999999997</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>0.95657029999999998</v>
+      </c>
+      <c r="R67" s="2">
+        <v>0.93554479999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>31</v>
+      </c>
+      <c r="B68" s="2">
+        <v>1</v>
+      </c>
+      <c r="C68" s="5">
+        <v>5.1800000000000004E-6</v>
+      </c>
+      <c r="D68" s="5">
+        <v>7.6699999999999994E-6</v>
+      </c>
+      <c r="E68" s="5">
+        <v>7.9200000000000004E-6</v>
+      </c>
+      <c r="F68" s="5">
+        <v>1.7790000000000001E-5</v>
+      </c>
+      <c r="G68" s="5">
+        <v>1.81E-6</v>
+      </c>
+      <c r="H68" s="5">
+        <v>1.77E-6</v>
+      </c>
+      <c r="I68" s="5">
+        <v>4.4900000000000002E-6</v>
+      </c>
+      <c r="J68" s="5">
+        <v>7.1799999999999999E-6</v>
+      </c>
+      <c r="K68" s="2">
+        <v>1</v>
+      </c>
+      <c r="L68" s="2">
+        <v>1</v>
+      </c>
+      <c r="M68" s="2">
+        <v>1</v>
+      </c>
+      <c r="N68" s="2">
+        <v>1</v>
+      </c>
+      <c r="O68" s="2">
+        <v>1</v>
+      </c>
+      <c r="P68" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>1</v>
+      </c>
+      <c r="R68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>31</v>
+      </c>
+      <c r="B69" s="2">
+        <v>2</v>
+      </c>
+      <c r="C69" s="5">
+        <v>6.8299999999999998E-6</v>
+      </c>
+      <c r="D69" s="5">
+        <v>1.011E-5</v>
+      </c>
+      <c r="E69" s="5">
+        <v>9.5400000000000001E-6</v>
+      </c>
+      <c r="F69" s="5">
+        <v>1.239E-5</v>
+      </c>
+      <c r="G69" s="5">
+        <v>2.1100000000000001E-6</v>
+      </c>
+      <c r="H69" s="5">
+        <v>1.9700000000000002E-6</v>
+      </c>
+      <c r="I69" s="5">
+        <v>6.0900000000000001E-6</v>
+      </c>
+      <c r="J69" s="5">
+        <v>6.19E-6</v>
+      </c>
+      <c r="K69" s="2">
+        <v>1.31679159</v>
+      </c>
+      <c r="L69" s="2">
+        <v>1.31879072</v>
+      </c>
+      <c r="M69" s="2">
+        <v>1.20501049</v>
+      </c>
+      <c r="N69" s="2">
+        <v>0.69671238999999996</v>
+      </c>
+      <c r="O69" s="2">
+        <v>1.16796678</v>
+      </c>
+      <c r="P69" s="2">
+        <v>1.1108620300000001</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>1.35773977</v>
+      </c>
+      <c r="R69" s="2">
+        <v>0.86111930999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>31</v>
+      </c>
+      <c r="B70" s="2">
+        <v>4</v>
+      </c>
+      <c r="C70" s="5">
+        <v>5.7599999999999999E-6</v>
+      </c>
+      <c r="D70" s="5">
+        <v>8.1999999999999994E-6</v>
+      </c>
+      <c r="E70" s="5">
+        <v>8.8899999999999996E-6</v>
+      </c>
+      <c r="F70" s="5">
+        <v>1.324E-5</v>
+      </c>
+      <c r="G70" s="5">
+        <v>1.9700000000000002E-6</v>
+      </c>
+      <c r="H70" s="5">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I70" s="5">
+        <v>5.4700000000000001E-6</v>
+      </c>
+      <c r="J70" s="5">
+        <v>9.3200000000000006E-6</v>
+      </c>
+      <c r="K70" s="2">
+        <v>1.1101188</v>
+      </c>
+      <c r="L70" s="2">
+        <v>1.0697491299999999</v>
+      </c>
+      <c r="M70" s="2">
+        <v>1.12234905</v>
+      </c>
+      <c r="N70" s="2">
+        <v>0.74441259999999998</v>
+      </c>
+      <c r="O70" s="2">
+        <v>1.0907243600000001</v>
+      </c>
+      <c r="P70" s="2">
+        <v>1.12764441</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>1.2195430700000001</v>
+      </c>
+      <c r="R70" s="2">
+        <v>1.29694668</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>32</v>
+      </c>
+      <c r="B71" s="2">
+        <v>1</v>
+      </c>
+      <c r="C71" s="5">
+        <v>3.3000000000000002E-6</v>
+      </c>
+      <c r="D71" s="5">
+        <v>4.2599999999999999E-6</v>
+      </c>
+      <c r="E71" s="5">
+        <v>4.6E-6</v>
+      </c>
+      <c r="F71" s="5">
+        <v>1.005E-5</v>
+      </c>
+      <c r="G71" s="5">
+        <v>1.9E-6</v>
+      </c>
+      <c r="H71" s="5">
+        <v>2.0600000000000002E-6</v>
+      </c>
+      <c r="I71" s="5">
+        <v>2.3999999999999999E-6</v>
+      </c>
+      <c r="J71" s="5">
+        <v>5.5300000000000004E-6</v>
+      </c>
+      <c r="K71" s="2">
+        <v>1</v>
+      </c>
+      <c r="L71" s="2">
+        <v>1</v>
+      </c>
+      <c r="M71" s="2">
+        <v>1</v>
+      </c>
+      <c r="N71" s="2">
+        <v>1</v>
+      </c>
+      <c r="O71" s="2">
+        <v>1</v>
+      </c>
+      <c r="P71" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>1</v>
+      </c>
+      <c r="R71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>32</v>
+      </c>
+      <c r="B72" s="2">
+        <v>2</v>
+      </c>
+      <c r="C72" s="5">
+        <v>3.8600000000000003E-6</v>
+      </c>
+      <c r="D72" s="5">
+        <v>5.1200000000000001E-6</v>
+      </c>
+      <c r="E72" s="5">
+        <v>1.277E-5</v>
+      </c>
+      <c r="F72" s="5">
+        <v>1.26E-5</v>
+      </c>
+      <c r="G72" s="5">
+        <v>2.5600000000000001E-6</v>
+      </c>
+      <c r="H72" s="5">
+        <v>2.5799999999999999E-6</v>
+      </c>
+      <c r="I72" s="5">
+        <v>1.99E-6</v>
+      </c>
+      <c r="J72" s="5">
+        <v>4.9400000000000001E-6</v>
+      </c>
+      <c r="K72" s="2">
+        <v>1.1676058199999999</v>
+      </c>
+      <c r="L72" s="2">
+        <v>1.2041313600000001</v>
+      </c>
+      <c r="M72" s="2">
+        <v>2.7779590199999999</v>
+      </c>
+      <c r="N72" s="2">
+        <v>1.2538389999999999</v>
+      </c>
+      <c r="O72" s="2">
+        <v>1.34747796</v>
+      </c>
+      <c r="P72" s="2">
+        <v>1.25018231</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>0.82943241000000001</v>
+      </c>
+      <c r="R72" s="2">
+        <v>0.89326764000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>32</v>
+      </c>
+      <c r="B73" s="2">
+        <v>4</v>
+      </c>
+      <c r="C73" s="5">
+        <v>5.7100000000000004E-6</v>
+      </c>
+      <c r="D73" s="5">
+        <v>8.0900000000000005E-6</v>
+      </c>
+      <c r="E73" s="5">
+        <v>7.4800000000000004E-6</v>
+      </c>
+      <c r="F73" s="5">
+        <v>6.5599999999999999E-6</v>
+      </c>
+      <c r="G73" s="5">
+        <v>3.2399999999999999E-6</v>
+      </c>
+      <c r="H73" s="5">
+        <v>2.92E-6</v>
+      </c>
+      <c r="I73" s="5">
+        <v>6.4799999999999998E-6</v>
+      </c>
+      <c r="J73" s="5">
+        <v>6.2299999999999996E-6</v>
+      </c>
+      <c r="K73" s="2">
+        <v>1.7281525200000001</v>
+      </c>
+      <c r="L73" s="2">
+        <v>1.90061769</v>
+      </c>
+      <c r="M73" s="2">
+        <v>1.6280976700000001</v>
+      </c>
+      <c r="N73" s="2">
+        <v>0.65268276999999997</v>
+      </c>
+      <c r="O73" s="2">
+        <v>1.7001700099999999</v>
+      </c>
+      <c r="P73" s="2">
+        <v>1.4144467999999999</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>2.7029535899999999</v>
+      </c>
+      <c r="R73" s="2">
+        <v>1.12636907</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B33C2C2-6857-C342-B4BE-53B45F9A369C}">
+  <dimension ref="A1:J73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:T1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>4.3100000000000002E-6</v>
+      </c>
+      <c r="D2" s="10">
+        <v>5.6500000000000001E-6</v>
+      </c>
+      <c r="E2" s="10">
+        <v>1.0210000000000001E-5</v>
+      </c>
+      <c r="F2" s="10">
+        <v>1.9897070000000001E-5</v>
+      </c>
+      <c r="G2" s="10">
+        <v>2.4499999999999998E-6</v>
+      </c>
+      <c r="H2" s="10">
+        <v>2.4899999999999999E-6</v>
+      </c>
+      <c r="I2" s="10">
+        <v>1.03E-5</v>
+      </c>
+      <c r="J2" s="10">
+        <v>6.4099999999999996E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>5</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10">
+        <v>5.2599999999999996E-6</v>
+      </c>
+      <c r="D3" s="10">
+        <v>7.4200000000000001E-6</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1.06E-5</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1.9897070000000001E-5</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1.7799999999999999E-6</v>
+      </c>
+      <c r="H3" s="10">
+        <v>1.6899999999999999E-6</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1.2629999999999999E-5</v>
+      </c>
+      <c r="J3" s="10">
+        <v>1.3334139999999999E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9">
+        <v>4</v>
+      </c>
+      <c r="C4" s="10">
+        <v>4.95E-6</v>
+      </c>
+      <c r="D4" s="10">
+        <v>7.0199999999999997E-6</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1.136E-5</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1.9897070000000001E-5</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1.46E-6</v>
+      </c>
+      <c r="H4" s="10">
+        <v>1.55E-6</v>
+      </c>
+      <c r="I4" s="10">
+        <v>1.024E-5</v>
+      </c>
+      <c r="J4" s="10">
+        <v>7.7800000000000001E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>4.6500000000000004E-6</v>
+      </c>
+      <c r="D5" s="10">
+        <v>5.4600000000000002E-6</v>
+      </c>
+      <c r="E5" s="10">
+        <v>8.1499999999999999E-6</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1.9897070000000001E-5</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1.95E-6</v>
+      </c>
+      <c r="H5" s="10">
+        <v>1.68E-6</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1.173E-5</v>
+      </c>
+      <c r="J5" s="10">
+        <v>8.4300000000000006E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>6</v>
+      </c>
+      <c r="B6" s="9">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10">
+        <v>4.3800000000000004E-6</v>
+      </c>
+      <c r="D6" s="10">
+        <v>5.7400000000000001E-6</v>
+      </c>
+      <c r="E6" s="10">
+        <v>8.8899999999999996E-6</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1.9897070000000001E-5</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1.8700000000000001E-6</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1.2119999999999999E-5</v>
+      </c>
+      <c r="J6" s="10">
+        <v>7.61E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10">
+        <v>5.5500000000000002E-6</v>
+      </c>
+      <c r="D7" s="10">
+        <v>6.1999999999999999E-6</v>
+      </c>
+      <c r="E7" s="10">
+        <v>9.6099999999999995E-6</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1.9897070000000001E-5</v>
+      </c>
+      <c r="G7" s="10">
+        <v>2.1100000000000001E-6</v>
+      </c>
+      <c r="H7" s="10">
+        <v>2.0099999999999998E-6</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1.5318599999999999E-5</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1.17E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>8</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10">
+        <v>6.4999999999999996E-6</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2.5299999999999999E-6</v>
+      </c>
+      <c r="E8" s="10">
+        <v>9.0299999999999999E-6</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1.364E-5</v>
+      </c>
+      <c r="G8" s="10">
+        <v>2.03E-6</v>
+      </c>
+      <c r="H8" s="10">
+        <v>2.8628200000000001E-6</v>
+      </c>
+      <c r="I8" s="10">
+        <v>4.3100000000000002E-6</v>
+      </c>
+      <c r="J8" s="10">
+        <v>3.7100000000000001E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10">
+        <v>3.7799999999999998E-6</v>
+      </c>
+      <c r="D9" s="10">
+        <v>3.6899999999999998E-6</v>
+      </c>
+      <c r="E9" s="10">
+        <v>6.6699999999999997E-6</v>
+      </c>
+      <c r="F9" s="10">
+        <v>8.3599999999999996E-6</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1.7799999999999999E-6</v>
+      </c>
+      <c r="H9" s="10">
+        <v>2.2800000000000002E-6</v>
+      </c>
+      <c r="I9" s="10">
+        <v>1.5318599999999999E-5</v>
+      </c>
+      <c r="J9" s="10">
+        <v>1.3334139999999999E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9">
+        <v>4</v>
+      </c>
+      <c r="C10" s="10">
+        <v>7.4771139999999999E-6</v>
+      </c>
+      <c r="D10" s="10">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="E10" s="10">
+        <v>9.5599999999999999E-6</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1.3869999999999999E-5</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1.4699999999999999E-6</v>
+      </c>
+      <c r="H10" s="10">
+        <v>2.17E-6</v>
+      </c>
+      <c r="I10" s="10">
+        <v>7.1899999999999998E-6</v>
+      </c>
+      <c r="J10" s="10">
+        <v>4.5499999999999996E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10">
+        <v>4.7500000000000003E-6</v>
+      </c>
+      <c r="D11" s="10">
+        <v>4.3599999999999998E-6</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1.101E-5</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1.308E-5</v>
+      </c>
+      <c r="G11" s="10">
+        <v>2.5000000000000002E-6</v>
+      </c>
+      <c r="H11" s="10">
+        <v>1.33E-6</v>
+      </c>
+      <c r="I11" s="10">
+        <v>1.5318599999999999E-5</v>
+      </c>
+      <c r="J11" s="10">
+        <v>5.9200000000000001E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10">
+        <v>5.3900000000000001E-6</v>
+      </c>
+      <c r="D12" s="10">
+        <v>4.6700000000000002E-6</v>
+      </c>
+      <c r="E12" s="10">
+        <v>9.6199999999999994E-6</v>
+      </c>
+      <c r="F12" s="10">
+        <v>1.0869999999999999E-5</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1.9599999999999999E-6</v>
+      </c>
+      <c r="H12" s="10">
+        <v>1.35E-6</v>
+      </c>
+      <c r="I12" s="10">
+        <v>1.0530000000000001E-5</v>
+      </c>
+      <c r="J12" s="10">
+        <v>6.0599999999999996E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>9</v>
+      </c>
+      <c r="B13" s="9">
+        <v>4</v>
+      </c>
+      <c r="C13" s="10">
+        <v>6.2299999999999996E-6</v>
+      </c>
+      <c r="D13" s="10">
+        <v>4.0899999999999998E-6</v>
+      </c>
+      <c r="E13" s="10">
+        <v>9.2499999999999995E-6</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1.046E-5</v>
+      </c>
+      <c r="G13" s="10">
+        <v>2.08E-6</v>
+      </c>
+      <c r="H13" s="10">
+        <v>1.31E-6</v>
+      </c>
+      <c r="I13" s="10">
+        <v>4.7999999999999998E-6</v>
+      </c>
+      <c r="J13" s="10">
+        <v>4.0199999999999996E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10">
+        <v>3.4999999999999999E-6</v>
+      </c>
+      <c r="D14" s="10">
+        <v>4.1999999999999996E-6</v>
+      </c>
+      <c r="E14" s="10">
+        <v>9.5599999999999999E-6</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1.181E-5</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1.6899999999999999E-6</v>
+      </c>
+      <c r="H14" s="10">
+        <v>1.6700000000000001E-6</v>
+      </c>
+      <c r="I14" s="10">
+        <v>7.2799999999999998E-6</v>
+      </c>
+      <c r="J14" s="10">
+        <v>6.2199999999999997E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>10</v>
+      </c>
+      <c r="B15" s="9">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10">
+        <v>4.2300000000000002E-6</v>
+      </c>
+      <c r="D15" s="10">
+        <v>4.9200000000000003E-6</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1.183E-5</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1.3159999999999999E-5</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1.68E-6</v>
+      </c>
+      <c r="H15" s="10">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="I15" s="10">
+        <v>8.14E-6</v>
+      </c>
+      <c r="J15" s="10">
+        <v>6.5599999999999999E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>10</v>
+      </c>
+      <c r="B16" s="9">
+        <v>4</v>
+      </c>
+      <c r="C16" s="10">
+        <v>4.6500000000000004E-6</v>
+      </c>
+      <c r="D16" s="10">
+        <v>4.9100000000000004E-6</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1.2269999999999999E-5</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1.252E-5</v>
+      </c>
+      <c r="G16" s="10">
+        <v>2.0600000000000002E-6</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1.86E-6</v>
+      </c>
+      <c r="I16" s="10">
+        <v>7.9400000000000002E-6</v>
+      </c>
+      <c r="J16" s="10">
+        <v>7.2599999999999999E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>11</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10">
+        <v>4.5000000000000001E-6</v>
+      </c>
+      <c r="D17" s="10">
+        <v>5.0599999999999998E-6</v>
+      </c>
+      <c r="E17" s="10">
+        <v>7.8099999999999998E-6</v>
+      </c>
+      <c r="F17" s="10">
+        <v>9.5400000000000001E-6</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1.4899999999999999E-6</v>
+      </c>
+      <c r="H17" s="10">
+        <v>1.5099999999999999E-6</v>
+      </c>
+      <c r="I17" s="10">
+        <v>4.0999999999999997E-6</v>
+      </c>
+      <c r="J17" s="10">
+        <v>3.8399999999999997E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>11</v>
+      </c>
+      <c r="B18" s="9">
+        <v>2</v>
+      </c>
+      <c r="C18" s="10">
+        <v>5.0200000000000002E-6</v>
+      </c>
+      <c r="D18" s="10">
+        <v>5.57E-6</v>
+      </c>
+      <c r="E18" s="10">
+        <v>7.79E-6</v>
+      </c>
+      <c r="F18" s="10">
+        <v>1.0349999999999999E-5</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1.6199999999999999E-6</v>
+      </c>
+      <c r="H18" s="10">
+        <v>1.5799999999999999E-6</v>
+      </c>
+      <c r="I18" s="10">
+        <v>3.9600000000000002E-6</v>
+      </c>
+      <c r="J18" s="10">
+        <v>3.4599999999999999E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <v>11</v>
+      </c>
+      <c r="B19" s="9">
+        <v>4</v>
+      </c>
+      <c r="C19" s="10">
+        <v>4.6999999999999999E-6</v>
+      </c>
+      <c r="D19" s="10">
+        <v>5.48E-6</v>
+      </c>
+      <c r="E19" s="10">
+        <v>8.1100000000000003E-6</v>
+      </c>
+      <c r="F19" s="10">
+        <v>1.146E-5</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="H19" s="10">
+        <v>1.61E-6</v>
+      </c>
+      <c r="I19" s="10">
+        <v>5.0499999999999999E-6</v>
+      </c>
+      <c r="J19" s="10">
+        <v>4.1300000000000003E-6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
+        <v>12</v>
+      </c>
+      <c r="B20" s="9">
+        <v>1</v>
+      </c>
+      <c r="C20" s="10">
+        <v>7.2200000000000003E-6</v>
+      </c>
+      <c r="D20" s="10">
+        <v>9.5916279999999997E-6</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1.046E-5</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1.613E-5</v>
+      </c>
+      <c r="G20" s="10">
+        <v>1.39E-6</v>
+      </c>
+      <c r="H20" s="10">
+        <v>1.4699999999999999E-6</v>
+      </c>
+      <c r="I20" s="10">
+        <v>1.322E-5</v>
+      </c>
+      <c r="J20" s="10">
+        <v>2.3300000000000001E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
+        <v>12</v>
+      </c>
+      <c r="B21" s="9">
+        <v>2</v>
+      </c>
+      <c r="C21" s="10">
+        <v>7.4771139999999999E-6</v>
+      </c>
+      <c r="D21" s="10">
+        <v>9.5916279999999997E-6</v>
+      </c>
+      <c r="E21" s="10">
+        <v>8.8699999999999998E-6</v>
+      </c>
+      <c r="F21" s="10">
+        <v>1.491E-5</v>
+      </c>
+      <c r="G21" s="10">
+        <v>1.37E-6</v>
+      </c>
+      <c r="H21" s="10">
+        <v>1.4899999999999999E-6</v>
+      </c>
+      <c r="I21" s="10">
+        <v>1.0699999999999999E-5</v>
+      </c>
+      <c r="J21" s="10">
+        <v>4.1799999999999998E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <v>12</v>
+      </c>
+      <c r="B22" s="9">
+        <v>4</v>
+      </c>
+      <c r="C22" s="10">
+        <v>7.4771139999999999E-6</v>
+      </c>
+      <c r="D22" s="10">
+        <v>9.5916279999999997E-6</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1.2289999999999999E-5</v>
+      </c>
+      <c r="F22" s="10">
+        <v>1.7050000000000001E-5</v>
+      </c>
+      <c r="G22" s="10">
+        <v>1.7600000000000001E-6</v>
+      </c>
+      <c r="H22" s="10">
+        <v>1.9700000000000002E-6</v>
+      </c>
+      <c r="I22" s="10">
+        <v>1.0730000000000001E-5</v>
+      </c>
+      <c r="J22" s="10">
+        <v>8.6000000000000007E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
+        <v>13</v>
+      </c>
+      <c r="B23" s="9">
+        <v>1</v>
+      </c>
+      <c r="C23" s="10">
+        <v>3.2100000000000002E-6</v>
+      </c>
+      <c r="D23" s="10">
+        <v>3.1499999999999999E-6</v>
+      </c>
+      <c r="E23" s="10">
+        <v>1.5611E-5</v>
+      </c>
+      <c r="F23" s="10">
+        <v>1.9897070000000001E-5</v>
+      </c>
+      <c r="G23" s="10">
+        <v>2.1900000000000002E-6</v>
+      </c>
+      <c r="H23" s="10">
+        <v>1.9800000000000001E-6</v>
+      </c>
+      <c r="I23" s="10">
+        <v>5.3800000000000002E-6</v>
+      </c>
+      <c r="J23" s="10">
+        <v>6.4899999999999997E-6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
+        <v>13</v>
+      </c>
+      <c r="B24" s="9">
+        <v>2</v>
+      </c>
+      <c r="C24" s="10">
+        <v>5.0499999999999999E-6</v>
+      </c>
+      <c r="D24" s="10">
+        <v>6.0100000000000001E-6</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1.361E-5</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1.9897070000000001E-5</v>
+      </c>
+      <c r="G24" s="10">
+        <v>2.6900000000000001E-6</v>
+      </c>
+      <c r="H24" s="10">
+        <v>2.8628200000000001E-6</v>
+      </c>
+      <c r="I24" s="10">
+        <v>7.1400000000000002E-6</v>
+      </c>
+      <c r="J24" s="10">
+        <v>7.3599999999999998E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
+        <v>13</v>
+      </c>
+      <c r="B25" s="9">
+        <v>4</v>
+      </c>
+      <c r="C25" s="10">
+        <v>3.7900000000000001E-6</v>
+      </c>
+      <c r="D25" s="10">
+        <v>4.4499999999999997E-6</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1.5611E-5</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1.9897070000000001E-5</v>
+      </c>
+      <c r="G25" s="10">
+        <v>2.6000000000000001E-6</v>
+      </c>
+      <c r="H25" s="10">
+        <v>2.4899999999999999E-6</v>
+      </c>
+      <c r="I25" s="10">
+        <v>8.7199999999999995E-6</v>
+      </c>
+      <c r="J25" s="10">
+        <v>9.7599999999999997E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="9">
+        <v>14</v>
+      </c>
+      <c r="B26" s="9">
+        <v>1</v>
+      </c>
+      <c r="C26" s="10">
+        <v>4.8400000000000002E-6</v>
+      </c>
+      <c r="D26" s="10">
+        <v>9.5916279999999997E-6</v>
+      </c>
+      <c r="E26" s="10">
+        <v>1.5611E-5</v>
+      </c>
+      <c r="F26" s="10">
+        <v>1.558E-5</v>
+      </c>
+      <c r="G26" s="10">
+        <v>2.08E-6</v>
+      </c>
+      <c r="H26" s="10">
+        <v>2.8628200000000001E-6</v>
+      </c>
+      <c r="I26" s="10">
+        <v>7.5299999999999999E-6</v>
+      </c>
+      <c r="J26" s="10">
+        <v>7.6000000000000001E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
+        <v>14</v>
+      </c>
+      <c r="B27" s="9">
+        <v>2</v>
+      </c>
+      <c r="C27" s="10">
+        <v>4.6099999999999999E-6</v>
+      </c>
+      <c r="D27" s="10">
+        <v>9.5916279999999997E-6</v>
+      </c>
+      <c r="E27" s="10">
+        <v>1.3169999999999999E-5</v>
+      </c>
+      <c r="F27" s="10">
+        <v>6.6499999999999999E-6</v>
+      </c>
+      <c r="G27" s="10">
+        <v>2.48E-6</v>
+      </c>
+      <c r="H27" s="10">
+        <v>2.2299999999999998E-6</v>
+      </c>
+      <c r="I27" s="10">
+        <v>1.5318599999999999E-5</v>
+      </c>
+      <c r="J27" s="10">
+        <v>6.9399999999999996E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <v>14</v>
+      </c>
+      <c r="B28" s="9">
+        <v>4</v>
+      </c>
+      <c r="C28" s="10">
+        <v>4.5499999999999996E-6</v>
+      </c>
+      <c r="D28" s="10">
+        <v>9.5916279999999997E-6</v>
+      </c>
+      <c r="E28" s="10">
+        <v>1.383E-5</v>
+      </c>
+      <c r="F28" s="10">
+        <v>7.61E-6</v>
+      </c>
+      <c r="G28" s="10">
+        <v>1.9199999999999998E-6</v>
+      </c>
+      <c r="H28" s="10">
+        <v>2.7099999999999999E-6</v>
+      </c>
+      <c r="I28" s="10">
+        <v>1.5318599999999999E-5</v>
+      </c>
+      <c r="J28" s="10">
+        <v>7.2899999999999997E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
+        <v>16</v>
+      </c>
+      <c r="B29" s="9">
+        <v>1</v>
+      </c>
+      <c r="C29" s="10">
+        <v>6.5200000000000003E-6</v>
+      </c>
+      <c r="D29" s="10">
+        <v>6.4200000000000004E-6</v>
+      </c>
+      <c r="E29" s="10">
+        <v>1.5099999999999999E-5</v>
+      </c>
+      <c r="F29" s="10">
+        <v>1.136E-5</v>
+      </c>
+      <c r="G29" s="10">
+        <v>8.42006E-7</v>
+      </c>
+      <c r="H29" s="10">
+        <v>9.9000000000000005E-7</v>
+      </c>
+      <c r="I29" s="10">
+        <v>6.5799999999999997E-6</v>
+      </c>
+      <c r="J29" s="10">
+        <v>6.5799999999999997E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="9">
+        <v>16</v>
+      </c>
+      <c r="B30" s="9">
+        <v>2</v>
+      </c>
+      <c r="C30" s="10">
+        <v>6.3999999999999997E-6</v>
+      </c>
+      <c r="D30" s="10">
+        <v>5.0799999999999996E-6</v>
+      </c>
+      <c r="E30" s="10">
+        <v>1.401E-5</v>
+      </c>
+      <c r="F30" s="10">
+        <v>1.2119999999999999E-5</v>
+      </c>
+      <c r="G30" s="10">
+        <v>1.17E-6</v>
+      </c>
+      <c r="H30" s="10">
+        <v>1.3400000000000001E-6</v>
+      </c>
+      <c r="I30" s="10">
+        <v>1.059E-5</v>
+      </c>
+      <c r="J30" s="10">
+        <v>1.1219999999999999E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="9">
+        <v>16</v>
+      </c>
+      <c r="B31" s="9">
+        <v>4</v>
+      </c>
+      <c r="C31" s="10">
+        <v>7.0700000000000001E-6</v>
+      </c>
+      <c r="D31" s="10">
+        <v>5.6099999999999997E-6</v>
+      </c>
+      <c r="E31" s="10">
+        <v>1.521E-5</v>
+      </c>
+      <c r="F31" s="10">
+        <v>1.253E-5</v>
+      </c>
+      <c r="G31" s="10">
+        <v>8.42006E-7</v>
+      </c>
+      <c r="H31" s="10">
+        <v>1.11E-6</v>
+      </c>
+      <c r="I31" s="10">
+        <v>1.099E-5</v>
+      </c>
+      <c r="J31" s="10">
+        <v>1.137E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="9">
+        <v>17</v>
+      </c>
+      <c r="B32" s="9">
+        <v>1</v>
+      </c>
+      <c r="C32" s="10">
+        <v>7.1899999999999998E-6</v>
+      </c>
+      <c r="D32" s="10">
+        <v>6.7800000000000003E-6</v>
+      </c>
+      <c r="E32" s="10">
+        <v>3.2499999999999998E-6</v>
+      </c>
+      <c r="F32" s="10">
+        <v>7.6199999999999999E-6</v>
+      </c>
+      <c r="G32" s="10">
+        <v>1.0100000000000001E-6</v>
+      </c>
+      <c r="H32" s="10">
+        <v>1.0300000000000001E-6</v>
+      </c>
+      <c r="I32" s="10">
+        <v>2.39E-6</v>
+      </c>
+      <c r="J32" s="10">
+        <v>2.3E-6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
+        <v>17</v>
+      </c>
+      <c r="B33" s="9">
+        <v>2</v>
+      </c>
+      <c r="C33" s="10">
+        <v>7.4771139999999999E-6</v>
+      </c>
+      <c r="D33" s="10">
+        <v>6.64E-6</v>
+      </c>
+      <c r="E33" s="10">
+        <v>3.41E-6</v>
+      </c>
+      <c r="F33" s="10">
+        <v>5.9599999999999997E-6</v>
+      </c>
+      <c r="G33" s="10">
+        <v>9.5000000000000001E-7</v>
+      </c>
+      <c r="H33" s="10">
+        <v>8.8999999999999995E-7</v>
+      </c>
+      <c r="I33" s="10">
+        <v>4.4499999999999997E-6</v>
+      </c>
+      <c r="J33" s="10">
+        <v>6.7700000000000004E-6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
+        <v>17</v>
+      </c>
+      <c r="B34" s="9">
+        <v>4</v>
+      </c>
+      <c r="C34" s="10">
+        <v>7.4771139999999999E-6</v>
+      </c>
+      <c r="D34" s="10">
+        <v>4.9699999999999998E-6</v>
+      </c>
+      <c r="E34" s="10">
+        <v>5.1599999999999997E-6</v>
+      </c>
+      <c r="F34" s="10">
+        <v>1.0200000000000001E-5</v>
+      </c>
+      <c r="G34" s="10">
+        <v>1.5200000000000001E-6</v>
+      </c>
+      <c r="H34" s="10">
+        <v>1.55E-6</v>
+      </c>
+      <c r="I34" s="10">
+        <v>1.9E-6</v>
+      </c>
+      <c r="J34" s="10">
+        <v>3.1700000000000001E-6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="9">
+        <v>18</v>
+      </c>
+      <c r="B35" s="9">
+        <v>1</v>
+      </c>
+      <c r="C35" s="10">
+        <v>2.6699999999999998E-6</v>
+      </c>
+      <c r="D35" s="10">
+        <v>3.7900000000000001E-6</v>
+      </c>
+      <c r="E35" s="10">
+        <v>5.2800000000000003E-6</v>
+      </c>
+      <c r="F35" s="10">
+        <v>9.4599999999999992E-6</v>
+      </c>
+      <c r="G35" s="10">
+        <v>1.0100000000000001E-6</v>
+      </c>
+      <c r="H35" s="10">
+        <v>1.4300000000000001E-6</v>
+      </c>
+      <c r="I35" s="10">
+        <v>5.6099999999999997E-6</v>
+      </c>
+      <c r="J35" s="10">
+        <v>7.5800000000000003E-6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
+        <v>18</v>
+      </c>
+      <c r="B36" s="9">
+        <v>2</v>
+      </c>
+      <c r="C36" s="10">
+        <v>3.6799999999999999E-6</v>
+      </c>
+      <c r="D36" s="10">
+        <v>4.1699999999999999E-6</v>
+      </c>
+      <c r="E36" s="10">
+        <v>7.7300000000000005E-6</v>
+      </c>
+      <c r="F36" s="10">
+        <v>1.0519999999999999E-5</v>
+      </c>
+      <c r="G36" s="10">
+        <v>1.4699999999999999E-6</v>
+      </c>
+      <c r="H36" s="10">
+        <v>1.8300000000000001E-6</v>
+      </c>
+      <c r="I36" s="10">
+        <v>1.5318599999999999E-5</v>
+      </c>
+      <c r="J36" s="10">
+        <v>1.3334139999999999E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="9">
+        <v>18</v>
+      </c>
+      <c r="B37" s="9">
+        <v>4</v>
+      </c>
+      <c r="C37" s="10">
+        <v>4.2599999999999999E-6</v>
+      </c>
+      <c r="D37" s="10">
+        <v>5.1699999999999996E-6</v>
+      </c>
+      <c r="E37" s="10">
+        <v>7.4200000000000001E-6</v>
+      </c>
+      <c r="F37" s="10">
+        <v>6.8399999999999997E-6</v>
+      </c>
+      <c r="G37" s="10">
+        <v>1.7999999999999999E-6</v>
+      </c>
+      <c r="H37" s="10">
+        <v>1.4899999999999999E-6</v>
+      </c>
+      <c r="I37" s="10">
+        <v>6.55E-6</v>
+      </c>
+      <c r="J37" s="10">
+        <v>1.0710000000000001E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="9">
+        <v>19</v>
+      </c>
+      <c r="B38" s="9">
+        <v>1</v>
+      </c>
+      <c r="C38" s="10">
+        <v>3.19E-6</v>
+      </c>
+      <c r="D38" s="10">
+        <v>3.49E-6</v>
+      </c>
+      <c r="E38" s="10">
+        <v>3.6100000000000002E-6</v>
+      </c>
+      <c r="F38" s="10">
+        <v>2.7700000000000002E-6</v>
+      </c>
+      <c r="G38" s="10">
+        <v>1.2699999999999999E-6</v>
+      </c>
+      <c r="H38" s="10">
+        <v>1.4899999999999999E-6</v>
+      </c>
+      <c r="I38" s="10">
+        <v>6.6200000000000001E-6</v>
+      </c>
+      <c r="J38" s="10">
+        <v>7.3599999999999998E-6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="9">
+        <v>19</v>
+      </c>
+      <c r="B39" s="9">
+        <v>2</v>
+      </c>
+      <c r="C39" s="10">
+        <v>3.8299999999999998E-6</v>
+      </c>
+      <c r="D39" s="10">
+        <v>4.25E-6</v>
+      </c>
+      <c r="E39" s="10">
+        <v>3.8099999999999999E-6</v>
+      </c>
+      <c r="F39" s="10">
+        <v>5.6500000000000001E-6</v>
+      </c>
+      <c r="G39" s="10">
+        <v>1.6199999999999999E-6</v>
+      </c>
+      <c r="H39" s="10">
+        <v>1.8199999999999999E-6</v>
+      </c>
+      <c r="I39" s="10">
+        <v>8.2300000000000008E-6</v>
+      </c>
+      <c r="J39" s="10">
+        <v>1.3334139999999999E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="9">
+        <v>19</v>
+      </c>
+      <c r="B40" s="9">
+        <v>4</v>
+      </c>
+      <c r="C40" s="10">
+        <v>3.2399999999999999E-6</v>
+      </c>
+      <c r="D40" s="10">
+        <v>3.58E-6</v>
+      </c>
+      <c r="E40" s="10">
+        <v>3.1300000000000001E-6</v>
+      </c>
+      <c r="F40" s="10">
+        <v>3.8399999999999997E-6</v>
+      </c>
+      <c r="G40" s="10">
+        <v>1.86E-6</v>
+      </c>
+      <c r="H40" s="10">
+        <v>1.7E-6</v>
+      </c>
+      <c r="I40" s="10">
+        <v>7.6399999999999997E-6</v>
+      </c>
+      <c r="J40" s="10">
+        <v>7.3000000000000004E-6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="9">
+        <v>20</v>
+      </c>
+      <c r="B41" s="9">
+        <v>1</v>
+      </c>
+      <c r="C41" s="10">
+        <v>3.8199999999999998E-6</v>
+      </c>
+      <c r="D41" s="10">
+        <v>4.4900000000000002E-6</v>
+      </c>
+      <c r="E41" s="10">
+        <v>3.6500000000000002E-6</v>
+      </c>
+      <c r="F41" s="10">
+        <v>4.5000000000000001E-6</v>
+      </c>
+      <c r="G41" s="10">
+        <v>2.21E-6</v>
+      </c>
+      <c r="H41" s="10">
+        <v>1.7E-6</v>
+      </c>
+      <c r="I41" s="10">
+        <v>4.07E-6</v>
+      </c>
+      <c r="J41" s="10">
+        <v>2.2299999999999998E-6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="9">
+        <v>20</v>
+      </c>
+      <c r="B42" s="9">
+        <v>2</v>
+      </c>
+      <c r="C42" s="10">
+        <v>4.1699999999999999E-6</v>
+      </c>
+      <c r="D42" s="10">
+        <v>6.0399999999999998E-6</v>
+      </c>
+      <c r="E42" s="10">
+        <v>5.31E-6</v>
+      </c>
+      <c r="F42" s="10">
+        <v>5.4299999999999997E-6</v>
+      </c>
+      <c r="G42" s="10">
+        <v>1.86E-6</v>
+      </c>
+      <c r="H42" s="10">
+        <v>1.4899999999999999E-6</v>
+      </c>
+      <c r="I42" s="10">
+        <v>4.07E-6</v>
+      </c>
+      <c r="J42" s="10">
+        <v>4.07E-6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="9">
+        <v>20</v>
+      </c>
+      <c r="B43" s="9">
+        <v>4</v>
+      </c>
+      <c r="C43" s="10">
+        <v>4.0400000000000003E-6</v>
+      </c>
+      <c r="D43" s="10">
+        <v>4.9799999999999998E-6</v>
+      </c>
+      <c r="E43" s="10">
+        <v>5.9200000000000001E-6</v>
+      </c>
+      <c r="F43" s="10">
+        <v>5.5300000000000004E-6</v>
+      </c>
+      <c r="G43" s="10">
+        <v>2.4099999999999998E-6</v>
+      </c>
+      <c r="H43" s="10">
+        <v>2.0099999999999998E-6</v>
+      </c>
+      <c r="I43" s="10">
+        <v>3.8E-6</v>
+      </c>
+      <c r="J43" s="10">
+        <v>4.3200000000000001E-6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="9">
+        <v>21</v>
+      </c>
+      <c r="B44" s="9">
+        <v>1</v>
+      </c>
+      <c r="C44" s="10">
+        <v>3.0800000000000002E-6</v>
+      </c>
+      <c r="D44" s="10">
+        <v>4.6700000000000002E-6</v>
+      </c>
+      <c r="E44" s="10">
+        <v>6.8600000000000004E-6</v>
+      </c>
+      <c r="F44" s="10">
+        <v>9.8400000000000007E-6</v>
+      </c>
+      <c r="G44" s="10">
+        <v>8.7000000000000003E-7</v>
+      </c>
+      <c r="H44" s="10">
+        <v>7.8718000000000004E-7</v>
+      </c>
+      <c r="I44" s="10">
+        <v>5.9499999999999998E-6</v>
+      </c>
+      <c r="J44" s="10">
+        <v>6.0299999999999999E-6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="9">
+        <v>21</v>
+      </c>
+      <c r="B45" s="9">
+        <v>2</v>
+      </c>
+      <c r="C45" s="10">
+        <v>4.3599999999999998E-6</v>
+      </c>
+      <c r="D45" s="10">
+        <v>6.0700000000000003E-6</v>
+      </c>
+      <c r="E45" s="10">
+        <v>9.6500000000000008E-6</v>
+      </c>
+      <c r="F45" s="10">
+        <v>9.8200000000000008E-6</v>
+      </c>
+      <c r="G45" s="10">
+        <v>1.1400000000000001E-6</v>
+      </c>
+      <c r="H45" s="10">
+        <v>1.1000000000000001E-6</v>
+      </c>
+      <c r="I45" s="10">
+        <v>7.0700000000000001E-6</v>
+      </c>
+      <c r="J45" s="10">
+        <v>5.0200000000000002E-6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="9">
+        <v>21</v>
+      </c>
+      <c r="B46" s="9">
+        <v>4</v>
+      </c>
+      <c r="C46" s="10">
+        <v>3.3299999999999999E-6</v>
+      </c>
+      <c r="D46" s="10">
+        <v>7.1899999999999998E-6</v>
+      </c>
+      <c r="E46" s="10">
+        <v>1.0180000000000001E-5</v>
+      </c>
+      <c r="F46" s="10">
+        <v>1.0030000000000001E-5</v>
+      </c>
+      <c r="G46" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H46" s="10">
+        <v>7.8718000000000004E-7</v>
+      </c>
+      <c r="I46" s="10">
+        <v>5.4999999999999999E-6</v>
+      </c>
+      <c r="J46" s="10">
+        <v>6.8000000000000001E-6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="9">
+        <v>22</v>
+      </c>
+      <c r="B47" s="9">
+        <v>1</v>
+      </c>
+      <c r="C47" s="10">
+        <v>5.8699999999999997E-6</v>
+      </c>
+      <c r="D47" s="10">
+        <v>7.4699999999999996E-6</v>
+      </c>
+      <c r="E47" s="10">
+        <v>1.5611E-5</v>
+      </c>
+      <c r="F47" s="10">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="G47" s="10">
+        <v>2.2699999999999999E-6</v>
+      </c>
+      <c r="H47" s="10">
+        <v>2.52E-6</v>
+      </c>
+      <c r="I47" s="10">
+        <v>3.2100000000000002E-6</v>
+      </c>
+      <c r="J47" s="10">
+        <v>4.9599999999999999E-6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="9">
+        <v>22</v>
+      </c>
+      <c r="B48" s="9">
+        <v>2</v>
+      </c>
+      <c r="C48" s="10">
+        <v>6.6499999999999999E-6</v>
+      </c>
+      <c r="D48" s="10">
+        <v>8.3999999999999992E-6</v>
+      </c>
+      <c r="E48" s="10">
+        <v>1.5611E-5</v>
+      </c>
+      <c r="F48" s="10">
+        <v>6.2400000000000004E-6</v>
+      </c>
+      <c r="G48" s="10">
+        <v>2.887994E-6</v>
+      </c>
+      <c r="H48" s="10">
+        <v>2.8628200000000001E-6</v>
+      </c>
+      <c r="I48" s="10">
+        <v>4.5499999999999996E-6</v>
+      </c>
+      <c r="J48" s="10">
+        <v>5.4099999999999999E-6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="9">
+        <v>22</v>
+      </c>
+      <c r="B49" s="9">
+        <v>4</v>
+      </c>
+      <c r="C49" s="10">
+        <v>6.1399999999999997E-6</v>
+      </c>
+      <c r="D49" s="10">
+        <v>8.1200000000000002E-6</v>
+      </c>
+      <c r="E49" s="10">
+        <v>1.5611E-5</v>
+      </c>
+      <c r="F49" s="10">
+        <v>8.0700000000000007E-6</v>
+      </c>
+      <c r="G49" s="10">
+        <v>2.1100000000000001E-6</v>
+      </c>
+      <c r="H49" s="10">
+        <v>2.2699999999999999E-6</v>
+      </c>
+      <c r="I49" s="10">
+        <v>3.6799999999999999E-6</v>
+      </c>
+      <c r="J49" s="10">
+        <v>6.2199999999999997E-6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="9">
+        <v>23</v>
+      </c>
+      <c r="B50" s="9">
+        <v>1</v>
+      </c>
+      <c r="C50" s="10">
+        <v>1.8728859999999999E-6</v>
+      </c>
+      <c r="D50" s="10">
+        <v>3.7900000000000001E-6</v>
+      </c>
+      <c r="E50" s="10">
+        <v>8.9400000000000008E-6</v>
+      </c>
+      <c r="F50" s="10">
+        <v>7.0299999999999996E-6</v>
+      </c>
+      <c r="G50" s="10">
+        <v>1.57E-6</v>
+      </c>
+      <c r="H50" s="10">
+        <v>1.61E-6</v>
+      </c>
+      <c r="I50" s="10">
+        <v>9.3500000000000003E-6</v>
+      </c>
+      <c r="J50" s="10">
+        <v>1.168E-5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="9">
+        <v>23</v>
+      </c>
+      <c r="B51" s="9">
+        <v>2</v>
+      </c>
+      <c r="C51" s="10">
+        <v>3.0900000000000001E-6</v>
+      </c>
+      <c r="D51" s="10">
+        <v>5.7200000000000003E-6</v>
+      </c>
+      <c r="E51" s="10">
+        <v>1.0329999999999999E-5</v>
+      </c>
+      <c r="F51" s="10">
+        <v>6.5899999999999996E-6</v>
+      </c>
+      <c r="G51" s="10">
+        <v>2.1900000000000002E-6</v>
+      </c>
+      <c r="H51" s="10">
+        <v>1.72E-6</v>
+      </c>
+      <c r="I51" s="10">
+        <v>9.3999999999999998E-6</v>
+      </c>
+      <c r="J51" s="10">
+        <v>1.2469999999999999E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="9">
+        <v>23</v>
+      </c>
+      <c r="B52" s="9">
+        <v>4</v>
+      </c>
+      <c r="C52" s="10">
+        <v>4.4800000000000003E-6</v>
+      </c>
+      <c r="D52" s="10">
+        <v>6.1700000000000002E-6</v>
+      </c>
+      <c r="E52" s="10">
+        <v>5.6799999999999998E-6</v>
+      </c>
+      <c r="F52" s="10">
+        <v>5.5199999999999997E-6</v>
+      </c>
+      <c r="G52" s="10">
+        <v>1.8500000000000001E-6</v>
+      </c>
+      <c r="H52" s="10">
+        <v>1.9199999999999998E-6</v>
+      </c>
+      <c r="I52" s="10">
+        <v>9.4299999999999995E-6</v>
+      </c>
+      <c r="J52" s="10">
+        <v>1.3334139999999999E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="9">
+        <v>25</v>
+      </c>
+      <c r="B53" s="9">
+        <v>1</v>
+      </c>
+      <c r="C53" s="10">
+        <v>4.5399999999999997E-6</v>
+      </c>
+      <c r="D53" s="10">
+        <v>3.4800000000000001E-6</v>
+      </c>
+      <c r="E53" s="10">
+        <v>6.3199999999999996E-6</v>
+      </c>
+      <c r="F53" s="10">
+        <v>1.2289999999999999E-5</v>
+      </c>
+      <c r="G53" s="10">
+        <v>1.4899999999999999E-6</v>
+      </c>
+      <c r="H53" s="10">
+        <v>1.59E-6</v>
+      </c>
+      <c r="I53" s="10">
+        <v>4.87E-6</v>
+      </c>
+      <c r="J53" s="10">
+        <v>4.4299999999999999E-6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="9">
+        <v>25</v>
+      </c>
+      <c r="B54" s="9">
+        <v>2</v>
+      </c>
+      <c r="C54" s="10">
+        <v>4.78E-6</v>
+      </c>
+      <c r="D54" s="10">
+        <v>1.99E-6</v>
+      </c>
+      <c r="E54" s="10">
+        <v>6.3999999999999997E-6</v>
+      </c>
+      <c r="F54" s="10">
+        <v>9.0299999999999999E-6</v>
+      </c>
+      <c r="G54" s="10">
+        <v>2.0700000000000001E-6</v>
+      </c>
+      <c r="H54" s="10">
+        <v>2.2400000000000002E-6</v>
+      </c>
+      <c r="I54" s="10">
+        <v>6.9700000000000002E-6</v>
+      </c>
+      <c r="J54" s="10">
+        <v>8.7399999999999993E-6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="9">
+        <v>25</v>
+      </c>
+      <c r="B55" s="9">
+        <v>4</v>
+      </c>
+      <c r="C55" s="10">
+        <v>3.01E-6</v>
+      </c>
+      <c r="D55" s="10">
+        <v>1.5799999999999999E-6</v>
+      </c>
+      <c r="E55" s="10">
+        <v>2.7599999999999998E-6</v>
+      </c>
+      <c r="F55" s="10">
+        <v>7.9500000000000001E-6</v>
+      </c>
+      <c r="G55" s="10">
+        <v>1.5799999999999999E-6</v>
+      </c>
+      <c r="H55" s="10">
+        <v>1.4300000000000001E-6</v>
+      </c>
+      <c r="I55" s="10">
+        <v>4.3599999999999998E-6</v>
+      </c>
+      <c r="J55" s="10">
+        <v>4.6600000000000003E-6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="9">
+        <v>26</v>
+      </c>
+      <c r="B56" s="9">
+        <v>1</v>
+      </c>
+      <c r="C56" s="10">
+        <v>4.6199999999999998E-6</v>
+      </c>
+      <c r="D56" s="10">
+        <v>9.5916279999999997E-6</v>
+      </c>
+      <c r="E56" s="10">
+        <v>8.1499999999999999E-6</v>
+      </c>
+      <c r="F56" s="10">
+        <v>1.395E-5</v>
+      </c>
+      <c r="G56" s="10">
+        <v>2.887994E-6</v>
+      </c>
+      <c r="H56" s="10">
+        <v>2.8628200000000001E-6</v>
+      </c>
+      <c r="I56" s="10">
+        <v>1.011E-5</v>
+      </c>
+      <c r="J56" s="10">
+        <v>1.0720000000000001E-5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="9">
+        <v>26</v>
+      </c>
+      <c r="B57" s="9">
+        <v>2</v>
+      </c>
+      <c r="C57" s="10">
+        <v>4.7099999999999998E-6</v>
+      </c>
+      <c r="D57" s="10">
+        <v>9.5916279999999997E-6</v>
+      </c>
+      <c r="E57" s="10">
+        <v>8.5399999999999996E-6</v>
+      </c>
+      <c r="F57" s="10">
+        <v>1.3519999999999999E-5</v>
+      </c>
+      <c r="G57" s="10">
+        <v>2.887994E-6</v>
+      </c>
+      <c r="H57" s="10">
+        <v>2.7599999999999998E-6</v>
+      </c>
+      <c r="I57" s="10">
+        <v>1.2819999999999999E-5</v>
+      </c>
+      <c r="J57" s="10">
+        <v>9.5799999999999998E-6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="9">
+        <v>26</v>
+      </c>
+      <c r="B58" s="9">
+        <v>4</v>
+      </c>
+      <c r="C58" s="10">
+        <v>5.8300000000000001E-6</v>
+      </c>
+      <c r="D58" s="10">
+        <v>9.5916279999999997E-6</v>
+      </c>
+      <c r="E58" s="10">
+        <v>9.6399999999999992E-6</v>
+      </c>
+      <c r="F58" s="10">
+        <v>1.277E-5</v>
+      </c>
+      <c r="G58" s="10">
+        <v>2.7499999999999999E-6</v>
+      </c>
+      <c r="H58" s="10">
+        <v>2.8628200000000001E-6</v>
+      </c>
+      <c r="I58" s="10">
+        <v>1.5318599999999999E-5</v>
+      </c>
+      <c r="J58" s="10">
+        <v>1.111E-5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="9">
+        <v>27</v>
+      </c>
+      <c r="B59" s="9">
+        <v>1</v>
+      </c>
+      <c r="C59" s="10">
+        <v>5.0799999999999996E-6</v>
+      </c>
+      <c r="D59" s="10">
+        <v>3.6200000000000001E-6</v>
+      </c>
+      <c r="E59" s="10">
+        <v>7.43E-6</v>
+      </c>
+      <c r="F59" s="10">
+        <v>7.5299999999999999E-6</v>
+      </c>
+      <c r="G59" s="10">
+        <v>1.77E-6</v>
+      </c>
+      <c r="H59" s="10">
+        <v>2.0099999999999998E-6</v>
+      </c>
+      <c r="I59" s="10">
+        <v>6.9399999999999996E-6</v>
+      </c>
+      <c r="J59" s="10">
+        <v>8.9900000000000003E-6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="9">
+        <v>27</v>
+      </c>
+      <c r="B60" s="9">
+        <v>2</v>
+      </c>
+      <c r="C60" s="10">
+        <v>6.6200000000000001E-6</v>
+      </c>
+      <c r="D60" s="10">
+        <v>4.2799999999999997E-6</v>
+      </c>
+      <c r="E60" s="10">
+        <v>8.0199999999999994E-6</v>
+      </c>
+      <c r="F60" s="10">
+        <v>8.5299999999999996E-6</v>
+      </c>
+      <c r="G60" s="10">
+        <v>2.3800000000000001E-6</v>
+      </c>
+      <c r="H60" s="10">
+        <v>2.4200000000000001E-6</v>
+      </c>
+      <c r="I60" s="10">
+        <v>7.2799999999999998E-6</v>
+      </c>
+      <c r="J60" s="10">
+        <v>1.145E-5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="9">
+        <v>27</v>
+      </c>
+      <c r="B61" s="9">
+        <v>4</v>
+      </c>
+      <c r="C61" s="10">
+        <v>5.4600000000000002E-6</v>
+      </c>
+      <c r="D61" s="10">
+        <v>4.07E-6</v>
+      </c>
+      <c r="E61" s="10">
+        <v>6.7100000000000001E-6</v>
+      </c>
+      <c r="F61" s="10">
+        <v>7.6899999999999992E-6</v>
+      </c>
+      <c r="G61" s="10">
+        <v>1.9199999999999998E-6</v>
+      </c>
+      <c r="H61" s="10">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I61" s="10">
+        <v>8.14E-6</v>
+      </c>
+      <c r="J61" s="10">
+        <v>1.252E-5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="9">
+        <v>28</v>
+      </c>
+      <c r="B62" s="9">
+        <v>1</v>
+      </c>
+      <c r="C62" s="10">
+        <v>3.8199999999999998E-6</v>
+      </c>
+      <c r="D62" s="10">
+        <v>3.49E-6</v>
+      </c>
+      <c r="E62" s="10">
+        <v>3.3900000000000002E-6</v>
+      </c>
+      <c r="F62" s="10">
+        <v>3.9299999999999996E-6</v>
+      </c>
+      <c r="G62" s="10">
+        <v>8.7000000000000003E-7</v>
+      </c>
+      <c r="H62" s="10">
+        <v>1.66E-6</v>
+      </c>
+      <c r="I62" s="10">
+        <v>2.83E-6</v>
+      </c>
+      <c r="J62" s="10">
+        <v>7.25E-6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="9">
+        <v>28</v>
+      </c>
+      <c r="B63" s="9">
+        <v>2</v>
+      </c>
+      <c r="C63" s="10">
+        <v>3.27E-6</v>
+      </c>
+      <c r="D63" s="10">
+        <v>3.4599999999999999E-6</v>
+      </c>
+      <c r="E63" s="10">
+        <v>9.2900000000000008E-6</v>
+      </c>
+      <c r="F63" s="10">
+        <v>4.5800000000000002E-6</v>
+      </c>
+      <c r="G63" s="10">
+        <v>1.95E-6</v>
+      </c>
+      <c r="H63" s="10">
+        <v>1.02E-6</v>
+      </c>
+      <c r="I63" s="10">
+        <v>8.6999999999999997E-6</v>
+      </c>
+      <c r="J63" s="10">
+        <v>1.149E-5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="9">
+        <v>28</v>
+      </c>
+      <c r="B64" s="9">
+        <v>4</v>
+      </c>
+      <c r="C64" s="10">
+        <v>3.6799999999999999E-6</v>
+      </c>
+      <c r="D64" s="10">
+        <v>2.7300000000000001E-6</v>
+      </c>
+      <c r="E64" s="10">
+        <v>7.0099999999999998E-6</v>
+      </c>
+      <c r="F64" s="10">
+        <v>1.9897070000000001E-5</v>
+      </c>
+      <c r="G64" s="10">
+        <v>1.46E-6</v>
+      </c>
+      <c r="H64" s="10">
+        <v>2.1799999999999999E-6</v>
+      </c>
+      <c r="I64" s="10">
+        <v>8.2800000000000003E-6</v>
+      </c>
+      <c r="J64" s="10">
+        <v>1.2330000000000001E-5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="9">
+        <v>30</v>
+      </c>
+      <c r="B65" s="9">
+        <v>1</v>
+      </c>
+      <c r="C65" s="10">
+        <v>4.0300000000000004E-6</v>
+      </c>
+      <c r="D65" s="10">
+        <v>5.3800000000000002E-6</v>
+      </c>
+      <c r="E65" s="10">
+        <v>6.55E-6</v>
+      </c>
+      <c r="F65" s="10">
+        <v>6.5400000000000001E-6</v>
+      </c>
+      <c r="G65" s="10">
+        <v>2.7999999999999999E-6</v>
+      </c>
+      <c r="H65" s="10">
+        <v>2.8628200000000001E-6</v>
+      </c>
+      <c r="I65" s="10">
+        <v>4.0899999999999998E-6</v>
+      </c>
+      <c r="J65" s="10">
+        <v>5.0499999999999999E-6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="9">
+        <v>30</v>
+      </c>
+      <c r="B66" s="9">
+        <v>2</v>
+      </c>
+      <c r="C66" s="10">
+        <v>7.4771139999999999E-6</v>
+      </c>
+      <c r="D66" s="10">
+        <v>6.2500000000000003E-6</v>
+      </c>
+      <c r="E66" s="10">
+        <v>5.4199999999999998E-6</v>
+      </c>
+      <c r="F66" s="10">
+        <v>9.7200000000000001E-6</v>
+      </c>
+      <c r="G66" s="10">
+        <v>2.08E-6</v>
+      </c>
+      <c r="H66" s="10">
+        <v>2.3099999999999999E-6</v>
+      </c>
+      <c r="I66" s="10">
+        <v>3.9700000000000001E-6</v>
+      </c>
+      <c r="J66" s="10">
+        <v>4.2300000000000002E-6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="9">
+        <v>30</v>
+      </c>
+      <c r="B67" s="9">
+        <v>4</v>
+      </c>
+      <c r="C67" s="10">
+        <v>7.1899999999999998E-6</v>
+      </c>
+      <c r="D67" s="10">
+        <v>6.9299999999999997E-6</v>
+      </c>
+      <c r="E67" s="10">
+        <v>5.6699999999999999E-6</v>
+      </c>
+      <c r="F67" s="10">
+        <v>8.0499999999999992E-6</v>
+      </c>
+      <c r="G67" s="10">
+        <v>2.5299999999999999E-6</v>
+      </c>
+      <c r="H67" s="10">
+        <v>2.1500000000000002E-6</v>
+      </c>
+      <c r="I67" s="10">
+        <v>3.9099999999999998E-6</v>
+      </c>
+      <c r="J67" s="10">
+        <v>4.7199999999999997E-6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="9">
+        <v>31</v>
+      </c>
+      <c r="B68" s="9">
+        <v>1</v>
+      </c>
+      <c r="C68" s="10">
+        <v>5.1800000000000004E-6</v>
+      </c>
+      <c r="D68" s="10">
+        <v>7.6699999999999994E-6</v>
+      </c>
+      <c r="E68" s="10">
+        <v>7.9200000000000004E-6</v>
+      </c>
+      <c r="F68" s="10">
+        <v>1.7790000000000001E-5</v>
+      </c>
+      <c r="G68" s="10">
+        <v>1.81E-6</v>
+      </c>
+      <c r="H68" s="10">
+        <v>1.77E-6</v>
+      </c>
+      <c r="I68" s="10">
+        <v>4.4900000000000002E-6</v>
+      </c>
+      <c r="J68" s="10">
+        <v>7.1799999999999999E-6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="9">
+        <v>31</v>
+      </c>
+      <c r="B69" s="9">
+        <v>2</v>
+      </c>
+      <c r="C69" s="10">
+        <v>6.8299999999999998E-6</v>
+      </c>
+      <c r="D69" s="10">
+        <v>9.5916279999999997E-6</v>
+      </c>
+      <c r="E69" s="10">
+        <v>9.5400000000000001E-6</v>
+      </c>
+      <c r="F69" s="10">
+        <v>1.239E-5</v>
+      </c>
+      <c r="G69" s="10">
+        <v>2.1100000000000001E-6</v>
+      </c>
+      <c r="H69" s="10">
+        <v>1.9700000000000002E-6</v>
+      </c>
+      <c r="I69" s="10">
+        <v>6.0900000000000001E-6</v>
+      </c>
+      <c r="J69" s="10">
+        <v>6.19E-6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="9">
+        <v>31</v>
+      </c>
+      <c r="B70" s="9">
+        <v>4</v>
+      </c>
+      <c r="C70" s="10">
+        <v>5.7599999999999999E-6</v>
+      </c>
+      <c r="D70" s="10">
+        <v>8.1999999999999994E-6</v>
+      </c>
+      <c r="E70" s="10">
+        <v>8.8899999999999996E-6</v>
+      </c>
+      <c r="F70" s="10">
+        <v>1.324E-5</v>
+      </c>
+      <c r="G70" s="10">
+        <v>1.9700000000000002E-6</v>
+      </c>
+      <c r="H70" s="10">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I70" s="10">
+        <v>5.4700000000000001E-6</v>
+      </c>
+      <c r="J70" s="10">
+        <v>9.3200000000000006E-6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="9">
+        <v>32</v>
+      </c>
+      <c r="B71" s="9">
+        <v>1</v>
+      </c>
+      <c r="C71" s="10">
+        <v>3.3000000000000002E-6</v>
+      </c>
+      <c r="D71" s="10">
+        <v>4.2599999999999999E-6</v>
+      </c>
+      <c r="E71" s="10">
+        <v>4.6E-6</v>
+      </c>
+      <c r="F71" s="10">
+        <v>1.005E-5</v>
+      </c>
+      <c r="G71" s="10">
+        <v>1.9E-6</v>
+      </c>
+      <c r="H71" s="10">
+        <v>2.0600000000000002E-6</v>
+      </c>
+      <c r="I71" s="10">
+        <v>2.3999999999999999E-6</v>
+      </c>
+      <c r="J71" s="10">
+        <v>5.5300000000000004E-6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="9">
+        <v>32</v>
+      </c>
+      <c r="B72" s="9">
+        <v>2</v>
+      </c>
+      <c r="C72" s="10">
+        <v>3.8600000000000003E-6</v>
+      </c>
+      <c r="D72" s="10">
+        <v>5.1200000000000001E-6</v>
+      </c>
+      <c r="E72" s="10">
+        <v>1.277E-5</v>
+      </c>
+      <c r="F72" s="10">
+        <v>1.26E-5</v>
+      </c>
+      <c r="G72" s="10">
+        <v>2.5600000000000001E-6</v>
+      </c>
+      <c r="H72" s="10">
+        <v>2.5799999999999999E-6</v>
+      </c>
+      <c r="I72" s="10">
+        <v>1.99E-6</v>
+      </c>
+      <c r="J72" s="10">
+        <v>4.9400000000000001E-6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="9">
+        <v>32</v>
+      </c>
+      <c r="B73" s="9">
+        <v>4</v>
+      </c>
+      <c r="C73" s="10">
+        <v>5.7100000000000004E-6</v>
+      </c>
+      <c r="D73" s="10">
+        <v>8.0900000000000005E-6</v>
+      </c>
+      <c r="E73" s="10">
+        <v>7.4800000000000004E-6</v>
+      </c>
+      <c r="F73" s="10">
+        <v>6.5599999999999999E-6</v>
+      </c>
+      <c r="G73" s="10">
+        <v>2.887994E-6</v>
+      </c>
+      <c r="H73" s="10">
+        <v>2.8628200000000001E-6</v>
+      </c>
+      <c r="I73" s="10">
+        <v>6.4799999999999998E-6</v>
+      </c>
+      <c r="J73" s="10">
+        <v>6.2299999999999996E-6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>